--- a/Registros.xlsx
+++ b/Registros.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="ENVIABLES" sheetId="1" state="visible" r:id="rId1"/>
@@ -15,10 +15,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="3">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
     <numFmt numFmtId="165" formatCode="d/m/yy"/>
-    <numFmt numFmtId="166" formatCode="#,##0.000"/>
   </numFmts>
   <fonts count="10">
     <font>
@@ -147,7 +146,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="4" fontId="1" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="3" fontId="1" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -175,24 +174,6 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="166" fontId="2" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
@@ -226,16 +207,10 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
@@ -626,285 +601,304 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AA14"/>
+  <dimension ref="A1:AA13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="AA3" sqref="AA3"/>
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="Y12" sqref="Y12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
   <cols>
-    <col width="10.90625" customWidth="1" style="39" min="2" max="2"/>
-    <col width="15" customWidth="1" style="39" min="4" max="4"/>
-    <col width="17.26953125" customWidth="1" style="39" min="5" max="5"/>
-    <col width="14.453125" customWidth="1" style="39" min="6" max="6"/>
-    <col width="20.1796875" customWidth="1" style="39" min="8" max="8"/>
-    <col width="21.7265625" customWidth="1" style="39" min="9" max="9"/>
-    <col width="10.90625" customWidth="1" style="39" min="17" max="17"/>
-    <col width="15.26953125" customWidth="1" style="39" min="22" max="22"/>
-    <col width="10.90625" customWidth="1" style="39" min="24" max="24"/>
+    <col width="10.90625" customWidth="1" style="31" min="2" max="2"/>
+    <col width="15" customWidth="1" style="31" min="4" max="4"/>
+    <col width="17.26953125" customWidth="1" style="31" min="5" max="5"/>
+    <col width="14.453125" customWidth="1" style="31" min="6" max="6"/>
+    <col width="20.1796875" customWidth="1" style="31" min="8" max="8"/>
+    <col width="21.7265625" customWidth="1" style="31" min="9" max="9"/>
+    <col width="10.90625" customWidth="1" style="31" min="17" max="17"/>
+    <col width="15.26953125" customWidth="1" style="31" min="22" max="22"/>
+    <col width="10.90625" customWidth="1" style="31" min="24" max="24"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="33" t="inlineStr">
+      <c r="A1" s="27" t="inlineStr">
         <is>
           <t>FECHA</t>
         </is>
       </c>
-      <c r="B1" s="33" t="inlineStr">
+      <c r="B1" s="27" t="inlineStr">
         <is>
           <t>PLAZO DIAS</t>
         </is>
       </c>
-      <c r="C1" s="29" t="inlineStr">
+      <c r="C1" s="23" t="inlineStr">
         <is>
           <t>FECHA DE VENCIMIENTO</t>
         </is>
       </c>
-      <c r="D1" s="31" t="inlineStr">
+      <c r="D1" s="25" t="inlineStr">
         <is>
           <t>FORMA DE PAGO</t>
         </is>
       </c>
-      <c r="E1" s="33" t="inlineStr">
+      <c r="E1" s="27" t="inlineStr">
         <is>
           <t>FACT/REMIS</t>
         </is>
       </c>
-      <c r="F1" s="33" t="inlineStr">
+      <c r="F1" s="27" t="inlineStr">
         <is>
           <t>DCTO FNCIERO</t>
         </is>
       </c>
-      <c r="G1" s="33" t="inlineStr">
+      <c r="G1" s="27" t="inlineStr">
         <is>
           <t>IVA</t>
         </is>
       </c>
-      <c r="H1" s="33" t="inlineStr">
+      <c r="H1" s="27" t="inlineStr">
         <is>
           <t>CLIENTENOMBRE</t>
         </is>
       </c>
-      <c r="I1" s="33" t="inlineStr">
+      <c r="I1" s="27" t="inlineStr">
         <is>
           <t>CLIENTEID</t>
         </is>
       </c>
-      <c r="J1" s="33" t="inlineStr">
+      <c r="J1" s="27" t="inlineStr">
         <is>
           <t>POBLACION</t>
         </is>
       </c>
-      <c r="K1" s="33" t="inlineStr">
+      <c r="K1" s="27" t="inlineStr">
         <is>
           <t>FAC/REM</t>
         </is>
       </c>
-      <c r="L1" s="33" t="inlineStr">
+      <c r="L1" s="27" t="inlineStr">
         <is>
           <t>TRANSPORTADORA</t>
         </is>
       </c>
-      <c r="M1" s="33" t="inlineStr">
+      <c r="M1" s="27" t="inlineStr">
         <is>
           <t>GUIA</t>
         </is>
       </c>
-      <c r="N1" s="29" t="inlineStr">
+      <c r="N1" s="23" t="inlineStr">
         <is>
           <t>PAC TOT</t>
         </is>
       </c>
-      <c r="O1" s="29" t="inlineStr">
+      <c r="O1" s="23" t="inlineStr">
         <is>
           <t>EMPACADOR</t>
         </is>
       </c>
-      <c r="P1" s="33" t="inlineStr">
+      <c r="P1" s="27" t="inlineStr">
         <is>
           <t>NOTAS</t>
         </is>
       </c>
-      <c r="Q1" s="33" t="inlineStr">
+      <c r="Q1" s="27" t="inlineStr">
         <is>
           <t>FALTANTE</t>
         </is>
       </c>
-      <c r="R1" s="33" t="inlineStr">
+      <c r="R1" s="27" t="inlineStr">
         <is>
           <t>REF</t>
         </is>
       </c>
-      <c r="S1" s="33" t="inlineStr">
+      <c r="S1" s="27" t="inlineStr">
         <is>
           <t>ARTICULO</t>
         </is>
       </c>
-      <c r="T1" s="33" t="inlineStr">
+      <c r="T1" s="27" t="inlineStr">
         <is>
           <t>CANTIDAD</t>
         </is>
       </c>
-      <c r="U1" s="33" t="inlineStr">
+      <c r="U1" s="27" t="inlineStr">
         <is>
           <t>PRECIOS IVA INC</t>
         </is>
       </c>
-      <c r="V1" s="33" t="inlineStr">
+      <c r="V1" s="27" t="inlineStr">
         <is>
           <t>TOTAL</t>
         </is>
       </c>
-      <c r="W1" s="33" t="inlineStr">
+      <c r="W1" s="27" t="inlineStr">
         <is>
           <t>PESO (KG)</t>
         </is>
       </c>
-      <c r="X1" s="33" t="inlineStr">
+      <c r="X1" s="27" t="inlineStr">
         <is>
           <t># PAQUETES</t>
         </is>
       </c>
-      <c r="Y1" s="33" t="inlineStr">
+      <c r="Y1" s="27" t="inlineStr">
         <is>
           <t>PRECIO BASE</t>
         </is>
       </c>
-      <c r="Z1" s="33" t="inlineStr">
+      <c r="Z1" s="27" t="inlineStr">
         <is>
           <t>SUBTOTAL</t>
         </is>
       </c>
-      <c r="AA1" s="29" t="inlineStr">
+      <c r="AA1" s="23" t="inlineStr">
         <is>
           <t>ESTADO</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="20" t="inlineStr">
-        <is>
-          <t xml:space="preserve">     </t>
-        </is>
-      </c>
-      <c r="B2" s="20" t="n"/>
-      <c r="C2" s="20" t="n"/>
-      <c r="D2" s="6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">     </t>
-        </is>
-      </c>
-      <c r="E2" s="6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">     </t>
-        </is>
-      </c>
-      <c r="F2" s="6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">     </t>
-        </is>
-      </c>
-      <c r="G2" s="19" t="inlineStr">
-        <is>
-          <t xml:space="preserve">     </t>
-        </is>
-      </c>
-      <c r="H2" s="19" t="n"/>
-      <c r="I2" s="37" t="n"/>
-      <c r="J2" s="6" t="n"/>
-      <c r="K2" s="6" t="n"/>
-      <c r="L2" s="34" t="n"/>
-      <c r="M2" s="4" t="n"/>
-      <c r="N2" s="34" t="n"/>
-      <c r="O2" s="34" t="n"/>
-      <c r="P2" s="6" t="n"/>
-      <c r="Q2" s="6" t="n"/>
-      <c r="R2" s="34" t="n"/>
-      <c r="S2" s="34" t="n"/>
-      <c r="T2" s="18" t="n"/>
-      <c r="U2" s="36" t="n"/>
-      <c r="V2" s="1" t="n"/>
-      <c r="W2" s="15" t="n"/>
-      <c r="X2" s="15" t="n"/>
-      <c r="Y2" s="17" t="n"/>
-      <c r="Z2" s="16" t="n"/>
-      <c r="AA2" s="1" t="n"/>
+      <c r="A2" s="13" t="n">
+        <v>44366</v>
+      </c>
+      <c r="B2" s="13" t="n"/>
+      <c r="C2" s="13" t="n">
+        <v>44366</v>
+      </c>
+      <c r="D2" s="16" t="n">
+        <v>6</v>
+      </c>
+      <c r="E2" s="34" t="inlineStr">
+        <is>
+          <t>Factura</t>
+        </is>
+      </c>
+      <c r="F2" s="16" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="G2" s="14" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="H2" s="18" t="inlineStr">
+        <is>
+          <t>Patricia rendon</t>
+        </is>
+      </c>
+      <c r="I2" s="30" t="n">
+        <v>39456079</v>
+      </c>
+      <c r="J2" s="16" t="inlineStr">
+        <is>
+          <t>Armenia</t>
+        </is>
+      </c>
+      <c r="K2" s="16" t="inlineStr">
+        <is>
+          <t>REM4350</t>
+        </is>
+      </c>
+      <c r="L2" s="10" t="inlineStr">
+        <is>
+          <t>Estelar Express</t>
+        </is>
+      </c>
+      <c r="M2" s="16" t="n">
+        <v>14228</v>
+      </c>
+      <c r="N2" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="O2" s="20" t="inlineStr">
+        <is>
+          <t>Luis Rendón</t>
+        </is>
+      </c>
+      <c r="P2" s="16" t="inlineStr">
+        <is>
+          <t>5 pacas</t>
+        </is>
+      </c>
+      <c r="Q2" s="16" t="n"/>
+      <c r="R2" s="28" t="n">
+        <v>1</v>
+      </c>
+      <c r="S2" s="22" t="inlineStr">
+        <is>
+          <t>Fibra 12000</t>
+        </is>
+      </c>
+      <c r="T2" s="9" t="n">
+        <v>320</v>
+      </c>
+      <c r="U2" s="8">
+        <f>Y2*(1+G2)</f>
+        <v/>
+      </c>
+      <c r="V2" s="7">
+        <f>U2*T2</f>
+        <v/>
+      </c>
+      <c r="W2" s="8" t="n">
+        <v>36</v>
+      </c>
+      <c r="X2" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y2" s="8" t="n">
+        <v>11000</v>
+      </c>
+      <c r="Z2" s="19">
+        <f>T2*Y2</f>
+        <v/>
+      </c>
+      <c r="AA2" t="inlineStr">
+        <is>
+          <t>Cargado</t>
+        </is>
+      </c>
     </row>
     <row r="3">
-      <c r="A3" s="13" t="n">
-        <v>44366</v>
-      </c>
+      <c r="A3" s="13" t="n"/>
       <c r="B3" s="13" t="n"/>
-      <c r="C3" s="13" t="n">
-        <v>44366</v>
-      </c>
-      <c r="D3" s="22" t="n">
-        <v>6</v>
-      </c>
-      <c r="E3" s="42" t="inlineStr">
-        <is>
-          <t>Factura</t>
-        </is>
-      </c>
-      <c r="F3" s="22" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="G3" s="14" t="n">
-        <v>0.19</v>
-      </c>
-      <c r="H3" s="24" t="inlineStr">
-        <is>
-          <t>Patricia rendon</t>
-        </is>
-      </c>
-      <c r="I3" s="38" t="n">
-        <v>39456079</v>
-      </c>
-      <c r="J3" s="22" t="inlineStr">
-        <is>
-          <t>Armenia</t>
-        </is>
-      </c>
-      <c r="K3" s="22" t="inlineStr">
-        <is>
-          <t>REM4350</t>
-        </is>
-      </c>
-      <c r="L3" s="10" t="inlineStr">
-        <is>
-          <t>Estelar Express</t>
-        </is>
-      </c>
-      <c r="M3" s="22" t="n">
-        <v>14228</v>
-      </c>
-      <c r="N3" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="O3" s="26" t="inlineStr">
-        <is>
-          <t>Luis Rendón</t>
-        </is>
-      </c>
-      <c r="P3" s="22" t="inlineStr">
-        <is>
-          <t>5 pacas</t>
-        </is>
-      </c>
-      <c r="Q3" s="22" t="n"/>
-      <c r="R3" s="35" t="n">
-        <v>1</v>
-      </c>
-      <c r="S3" s="28" t="inlineStr">
-        <is>
-          <t>Fibra 12000</t>
+      <c r="C3" s="13" t="n"/>
+      <c r="D3" s="16" t="n"/>
+      <c r="E3" s="16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">     </t>
+        </is>
+      </c>
+      <c r="F3" s="16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">     </t>
+        </is>
+      </c>
+      <c r="G3" s="12" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="H3" s="12" t="n"/>
+      <c r="J3" s="16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">     </t>
+        </is>
+      </c>
+      <c r="L3" s="10" t="n"/>
+      <c r="M3" s="11" t="n"/>
+      <c r="N3" s="10" t="n"/>
+      <c r="O3" s="10" t="n"/>
+      <c r="P3" s="16" t="n"/>
+      <c r="Q3" s="16" t="n"/>
+      <c r="R3" s="28" t="n">
+        <v>2</v>
+      </c>
+      <c r="S3" s="10" t="inlineStr">
+        <is>
+          <t>Herradura</t>
         </is>
       </c>
       <c r="T3" s="9" t="n">
-        <v>320</v>
+        <v>30</v>
       </c>
       <c r="U3" s="8">
         <f>Y3*(1+G3)</f>
@@ -915,64 +909,47 @@
         <v/>
       </c>
       <c r="W3" s="8" t="n">
-        <v>36</v>
-      </c>
-      <c r="X3" s="8" t="n">
-        <v>1</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="X3" s="8" t="n"/>
       <c r="Y3" s="8" t="n">
-        <v>11000</v>
-      </c>
-      <c r="Z3" s="25">
+        <v>12000</v>
+      </c>
+      <c r="Z3" s="8">
         <f>T3*Y3</f>
         <v/>
-      </c>
-      <c r="AA3" t="inlineStr">
-        <is>
-          <t>Cargado</t>
-        </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="13" t="n"/>
       <c r="B4" s="13" t="n"/>
       <c r="C4" s="13" t="n"/>
-      <c r="D4" s="22" t="n"/>
-      <c r="E4" s="22" t="inlineStr">
-        <is>
-          <t xml:space="preserve">     </t>
-        </is>
-      </c>
-      <c r="F4" s="22" t="inlineStr">
-        <is>
-          <t xml:space="preserve">     </t>
-        </is>
-      </c>
+      <c r="D4" s="16" t="n"/>
+      <c r="E4" s="16" t="n"/>
+      <c r="F4" s="16" t="n"/>
       <c r="G4" s="12" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="H4" s="12" t="n"/>
-      <c r="J4" s="22" t="inlineStr">
-        <is>
-          <t xml:space="preserve">     </t>
-        </is>
-      </c>
+      <c r="I4" s="32" t="n"/>
+      <c r="J4" s="16" t="n"/>
+      <c r="K4" s="16" t="n"/>
       <c r="L4" s="10" t="n"/>
       <c r="M4" s="11" t="n"/>
       <c r="N4" s="10" t="n"/>
       <c r="O4" s="10" t="n"/>
-      <c r="P4" s="22" t="n"/>
-      <c r="Q4" s="22" t="n"/>
-      <c r="R4" s="35" t="n">
-        <v>2</v>
-      </c>
-      <c r="S4" s="10" t="inlineStr">
-        <is>
-          <t>Herradura</t>
+      <c r="P4" s="16" t="n"/>
+      <c r="Q4" s="16" t="n"/>
+      <c r="R4" s="28" t="n">
+        <v>3</v>
+      </c>
+      <c r="S4" s="28" t="inlineStr">
+        <is>
+          <t>Cabuya</t>
         </is>
       </c>
       <c r="T4" s="9" t="n">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="U4" s="8">
         <f>Y4*(1+G4)</f>
@@ -983,11 +960,13 @@
         <v/>
       </c>
       <c r="W4" s="8" t="n">
-        <v>30</v>
-      </c>
-      <c r="X4" s="8" t="n"/>
+        <v>2.76</v>
+      </c>
+      <c r="X4" s="8" t="n">
+        <v>3</v>
+      </c>
       <c r="Y4" s="8" t="n">
-        <v>12000</v>
+        <v>3000</v>
       </c>
       <c r="Z4" s="8">
         <f>T4*Y4</f>
@@ -995,155 +974,158 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="13" t="n"/>
-      <c r="B5" s="13" t="n"/>
-      <c r="C5" s="13" t="n"/>
-      <c r="D5" s="22" t="n"/>
-      <c r="E5" s="22" t="n"/>
-      <c r="F5" s="22" t="n"/>
-      <c r="G5" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="H5" s="12" t="n"/>
-      <c r="I5" s="40" t="n"/>
-      <c r="J5" s="22" t="n"/>
-      <c r="K5" s="22" t="n"/>
-      <c r="L5" s="10" t="n"/>
-      <c r="M5" s="11" t="n"/>
-      <c r="N5" s="10" t="n"/>
-      <c r="O5" s="10" t="n"/>
-      <c r="P5" s="22" t="n"/>
-      <c r="Q5" s="22" t="n"/>
-      <c r="R5" s="35" t="n">
-        <v>3</v>
-      </c>
-      <c r="S5" s="35" t="inlineStr">
-        <is>
-          <t>Cabuya</t>
-        </is>
-      </c>
-      <c r="T5" s="9" t="n">
-        <v>24</v>
-      </c>
-      <c r="U5" s="8">
-        <f>Y5*(1+G5)</f>
-        <v/>
-      </c>
-      <c r="V5" s="7">
-        <f>U5*T5</f>
-        <v/>
-      </c>
-      <c r="W5" s="8" t="n">
-        <v>2.76</v>
-      </c>
-      <c r="X5" s="8" t="n">
-        <v>3</v>
-      </c>
-      <c r="Y5" s="8" t="n">
-        <v>3000</v>
-      </c>
-      <c r="Z5" s="8">
-        <f>T5*Y5</f>
-        <v/>
-      </c>
+      <c r="A5" s="29" t="n"/>
+      <c r="B5" s="29" t="n"/>
+      <c r="C5" s="29" t="n"/>
+      <c r="D5" s="6" t="n"/>
+      <c r="E5" s="29" t="n"/>
+      <c r="F5" s="29" t="n"/>
+      <c r="G5" s="5" t="n"/>
+      <c r="H5" s="5" t="n"/>
+      <c r="I5" s="29" t="n"/>
+      <c r="J5" s="29" t="n"/>
+      <c r="K5" s="29" t="n"/>
+      <c r="L5" s="29" t="n"/>
+      <c r="M5" s="4" t="n"/>
+      <c r="N5" s="29" t="n"/>
+      <c r="O5" s="29" t="n"/>
+      <c r="P5" s="29" t="n"/>
+      <c r="Q5" s="29" t="n"/>
+      <c r="R5" s="29" t="n"/>
+      <c r="S5" s="29" t="n"/>
+      <c r="T5" s="29" t="n"/>
+      <c r="U5" s="3" t="n"/>
+      <c r="V5" s="3" t="n"/>
+      <c r="W5" s="3" t="n"/>
+      <c r="X5" s="3" t="n"/>
+      <c r="Y5" s="2" t="n"/>
+      <c r="Z5" s="2" t="n"/>
+      <c r="AA5" s="1" t="n"/>
     </row>
     <row r="6">
-      <c r="A6" s="36" t="n"/>
-      <c r="B6" s="36" t="n"/>
-      <c r="C6" s="36" t="n"/>
-      <c r="D6" s="6" t="n"/>
-      <c r="E6" s="36" t="n"/>
-      <c r="F6" s="36" t="n"/>
-      <c r="G6" s="5" t="n"/>
-      <c r="H6" s="5" t="n"/>
-      <c r="I6" s="36" t="n"/>
-      <c r="J6" s="36" t="n"/>
-      <c r="K6" s="36" t="n"/>
-      <c r="L6" s="36" t="n"/>
-      <c r="M6" s="4" t="n"/>
-      <c r="N6" s="36" t="n"/>
-      <c r="O6" s="36" t="n"/>
-      <c r="P6" s="36" t="n"/>
-      <c r="Q6" s="36" t="n"/>
-      <c r="R6" s="36" t="n"/>
-      <c r="S6" s="36" t="n"/>
-      <c r="T6" s="36" t="n"/>
-      <c r="U6" s="3" t="n"/>
-      <c r="V6" s="3" t="n"/>
-      <c r="W6" s="3" t="n"/>
-      <c r="X6" s="3" t="n"/>
-      <c r="Y6" s="2" t="n"/>
-      <c r="Z6" s="2" t="n"/>
-      <c r="AA6" s="1" t="n"/>
+      <c r="A6" s="13" t="n">
+        <v>44365</v>
+      </c>
+      <c r="B6" s="13" t="n"/>
+      <c r="C6" s="24" t="n">
+        <v>44365</v>
+      </c>
+      <c r="D6" s="16" t="n">
+        <v>30</v>
+      </c>
+      <c r="E6" s="16" t="inlineStr">
+        <is>
+          <t>Remision</t>
+        </is>
+      </c>
+      <c r="F6" s="16" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="G6" s="12" t="n"/>
+      <c r="H6" s="12" t="inlineStr">
+        <is>
+          <t>Samuel rendon</t>
+        </is>
+      </c>
+      <c r="I6" s="33" t="n">
+        <v>3560832</v>
+      </c>
+      <c r="J6" s="16" t="inlineStr">
+        <is>
+          <t>Tuluá</t>
+        </is>
+      </c>
+      <c r="K6" s="16" t="inlineStr">
+        <is>
+          <t>FE2610</t>
+        </is>
+      </c>
+      <c r="L6" s="10" t="inlineStr">
+        <is>
+          <t>Estelar Express</t>
+        </is>
+      </c>
+      <c r="M6" s="21" t="n">
+        <v>15751</v>
+      </c>
+      <c r="N6" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="O6" s="17" t="inlineStr">
+        <is>
+          <t>Luis Rendón</t>
+        </is>
+      </c>
+      <c r="P6" s="16" t="n"/>
+      <c r="Q6" s="16" t="n"/>
+      <c r="R6" s="28" t="n">
+        <v>1</v>
+      </c>
+      <c r="S6" s="22" t="inlineStr">
+        <is>
+          <t>Fibra 12000</t>
+        </is>
+      </c>
+      <c r="T6" s="9" t="n">
+        <v>320</v>
+      </c>
+      <c r="U6" s="8">
+        <f>Y6*(1+G6)</f>
+        <v/>
+      </c>
+      <c r="V6" s="7">
+        <f>U6*T6</f>
+        <v/>
+      </c>
+      <c r="W6" s="8" t="n">
+        <v>36</v>
+      </c>
+      <c r="X6" s="8" t="n">
+        <v>2</v>
+      </c>
+      <c r="Y6" s="8" t="n">
+        <v>11000</v>
+      </c>
+      <c r="Z6" s="19">
+        <f>T6*Y6</f>
+        <v/>
+      </c>
+      <c r="AA6" t="inlineStr">
+        <is>
+          <t>Cargado</t>
+        </is>
+      </c>
     </row>
     <row r="7">
-      <c r="A7" s="13" t="n">
-        <v>44365</v>
-      </c>
-      <c r="B7" s="13" t="n"/>
-      <c r="C7" s="30" t="n">
-        <v>44365</v>
-      </c>
-      <c r="D7" s="22" t="n">
+      <c r="A7" s="15" t="n"/>
+      <c r="B7" s="15" t="n"/>
+      <c r="C7" s="15" t="n"/>
+      <c r="D7" s="16" t="n"/>
+      <c r="E7" s="16" t="n"/>
+      <c r="F7" s="16" t="n"/>
+      <c r="G7" s="12" t="n"/>
+      <c r="H7" s="12" t="n"/>
+      <c r="I7" s="32" t="n"/>
+      <c r="J7" s="15" t="n"/>
+      <c r="K7" s="15" t="n"/>
+      <c r="L7" s="10" t="n"/>
+      <c r="M7" s="11" t="n"/>
+      <c r="N7" s="10" t="n"/>
+      <c r="O7" s="10" t="n"/>
+      <c r="P7" s="16" t="n"/>
+      <c r="Q7" s="16" t="n"/>
+      <c r="R7" s="28" t="n">
+        <v>2</v>
+      </c>
+      <c r="S7" s="10" t="inlineStr">
+        <is>
+          <t>Herradura</t>
+        </is>
+      </c>
+      <c r="T7" s="9" t="n">
         <v>30</v>
-      </c>
-      <c r="E7" s="22" t="inlineStr">
-        <is>
-          <t>Remision</t>
-        </is>
-      </c>
-      <c r="F7" s="22" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="G7" s="12" t="n"/>
-      <c r="H7" s="12" t="inlineStr">
-        <is>
-          <t>Samuel rendon</t>
-        </is>
-      </c>
-      <c r="I7" s="41" t="n">
-        <v>3560832</v>
-      </c>
-      <c r="J7" s="22" t="inlineStr">
-        <is>
-          <t>Tuluá</t>
-        </is>
-      </c>
-      <c r="K7" s="22" t="inlineStr">
-        <is>
-          <t>FE2610</t>
-        </is>
-      </c>
-      <c r="L7" s="10" t="inlineStr">
-        <is>
-          <t>Estelar Express</t>
-        </is>
-      </c>
-      <c r="M7" s="27" t="n">
-        <v>15751</v>
-      </c>
-      <c r="N7" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="O7" s="23" t="inlineStr">
-        <is>
-          <t>Luis Rendón</t>
-        </is>
-      </c>
-      <c r="P7" s="22" t="n"/>
-      <c r="Q7" s="22" t="n"/>
-      <c r="R7" s="35" t="n">
-        <v>1</v>
-      </c>
-      <c r="S7" s="28" t="inlineStr">
-        <is>
-          <t>Fibra 12000</t>
-        </is>
-      </c>
-      <c r="T7" s="9" t="n">
-        <v>320</v>
       </c>
       <c r="U7" s="8">
         <f>Y7*(1+G7)</f>
@@ -1154,202 +1136,146 @@
         <v/>
       </c>
       <c r="W7" s="8" t="n">
-        <v>36</v>
-      </c>
-      <c r="X7" s="8" t="n">
-        <v>2</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="X7" s="8" t="n"/>
       <c r="Y7" s="8" t="n">
-        <v>11000</v>
-      </c>
-      <c r="Z7" s="25">
+        <v>12000</v>
+      </c>
+      <c r="Z7" s="8">
         <f>T7*Y7</f>
         <v/>
-      </c>
-      <c r="AA7" t="inlineStr">
-        <is>
-          <t>Cargado</t>
-        </is>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="21" t="n"/>
-      <c r="B8" s="21" t="n"/>
-      <c r="C8" s="21" t="n"/>
-      <c r="D8" s="22" t="n"/>
-      <c r="E8" s="22" t="n"/>
-      <c r="F8" s="22" t="n"/>
-      <c r="G8" s="12" t="n"/>
-      <c r="H8" s="12" t="n"/>
-      <c r="I8" s="40" t="n"/>
-      <c r="J8" s="21" t="n"/>
-      <c r="K8" s="21" t="n"/>
-      <c r="L8" s="10" t="n"/>
-      <c r="M8" s="11" t="n"/>
-      <c r="N8" s="10" t="n"/>
-      <c r="O8" s="10" t="n"/>
-      <c r="P8" s="22" t="n"/>
-      <c r="Q8" s="22" t="n"/>
-      <c r="R8" s="35" t="n">
-        <v>2</v>
-      </c>
-      <c r="S8" s="10" t="inlineStr">
-        <is>
-          <t>Herradura</t>
-        </is>
-      </c>
-      <c r="T8" s="9" t="n">
-        <v>30</v>
-      </c>
-      <c r="U8" s="8">
-        <f>Y8*(1+G8)</f>
-        <v/>
-      </c>
-      <c r="V8" s="7">
-        <f>U8*T8</f>
-        <v/>
-      </c>
-      <c r="W8" s="8" t="n">
-        <v>30</v>
-      </c>
-      <c r="X8" s="8" t="n"/>
-      <c r="Y8" s="8" t="n">
-        <v>12000</v>
-      </c>
-      <c r="Z8" s="8">
-        <f>T8*Y8</f>
-        <v/>
-      </c>
+      <c r="A8" s="29" t="n"/>
+      <c r="B8" s="29" t="n"/>
+      <c r="C8" s="29" t="n"/>
+      <c r="D8" s="29" t="n"/>
+      <c r="E8" s="29" t="n"/>
+      <c r="F8" s="29" t="n"/>
+      <c r="G8" s="5" t="n"/>
+      <c r="H8" s="5" t="n"/>
+      <c r="I8" s="29" t="n"/>
+      <c r="J8" s="29" t="n"/>
+      <c r="K8" s="29" t="n"/>
+      <c r="L8" s="29" t="n"/>
+      <c r="M8" s="4" t="n"/>
+      <c r="N8" s="29" t="n"/>
+      <c r="O8" s="29" t="n"/>
+      <c r="P8" s="29" t="n"/>
+      <c r="Q8" s="29" t="n"/>
+      <c r="R8" s="29" t="n"/>
+      <c r="S8" s="29" t="n"/>
+      <c r="T8" s="29" t="n"/>
+      <c r="U8" s="3" t="n"/>
+      <c r="V8" s="3" t="n"/>
+      <c r="W8" s="3" t="n"/>
+      <c r="X8" s="3" t="n"/>
+      <c r="Y8" s="2" t="n"/>
+      <c r="Z8" s="2" t="n"/>
+      <c r="AA8" s="1" t="n"/>
     </row>
     <row r="9">
-      <c r="A9" s="36" t="n"/>
-      <c r="B9" s="36" t="n"/>
-      <c r="C9" s="36" t="n"/>
-      <c r="D9" s="36" t="n"/>
-      <c r="E9" s="36" t="n"/>
-      <c r="F9" s="36" t="n"/>
-      <c r="G9" s="5" t="n"/>
-      <c r="H9" s="5" t="n"/>
-      <c r="I9" s="36" t="n"/>
-      <c r="J9" s="36" t="n"/>
-      <c r="K9" s="36" t="n"/>
-      <c r="L9" s="36" t="n"/>
-      <c r="M9" s="4" t="n"/>
-      <c r="N9" s="36" t="n"/>
-      <c r="O9" s="36" t="n"/>
-      <c r="P9" s="36" t="n"/>
-      <c r="Q9" s="36" t="n"/>
-      <c r="R9" s="36" t="n"/>
-      <c r="S9" s="36" t="n"/>
-      <c r="T9" s="36" t="n"/>
-      <c r="U9" s="3" t="n"/>
-      <c r="V9" s="3" t="n"/>
-      <c r="W9" s="3" t="n"/>
-      <c r="X9" s="3" t="n"/>
-      <c r="Y9" s="2" t="n"/>
-      <c r="Z9" s="2" t="n"/>
-      <c r="AA9" s="1" t="n"/>
+      <c r="A9" s="13" t="n">
+        <v>44365</v>
+      </c>
+      <c r="B9" s="13" t="n"/>
+      <c r="C9" s="13" t="n">
+        <v>44365</v>
+      </c>
+      <c r="D9" s="16" t="n">
+        <v>30</v>
+      </c>
+      <c r="E9" s="16" t="inlineStr">
+        <is>
+          <t>Factura</t>
+        </is>
+      </c>
+      <c r="F9" s="16" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="G9" s="12" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="H9" s="12" t="inlineStr">
+        <is>
+          <t>Samuel Rendon SAS</t>
+        </is>
+      </c>
+      <c r="I9" s="33" t="n">
+        <v>901352563</v>
+      </c>
+      <c r="J9" s="16" t="inlineStr">
+        <is>
+          <t>Tuluá</t>
+        </is>
+      </c>
+      <c r="K9" s="16" t="inlineStr">
+        <is>
+          <t>FE2610</t>
+        </is>
+      </c>
+      <c r="L9" s="10" t="inlineStr">
+        <is>
+          <t>Estelar Express</t>
+        </is>
+      </c>
+      <c r="M9" s="21" t="n">
+        <v>15751</v>
+      </c>
+      <c r="N9" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="O9" s="17" t="inlineStr">
+        <is>
+          <t>Luis Rendón</t>
+        </is>
+      </c>
+      <c r="P9" s="16" t="n"/>
+      <c r="Q9" s="16" t="n"/>
+      <c r="R9" s="28" t="n">
+        <v>3</v>
+      </c>
+      <c r="S9" s="28" t="inlineStr">
+        <is>
+          <t>Cabuya</t>
+        </is>
+      </c>
+      <c r="T9" s="9" t="n">
+        <v>24</v>
+      </c>
+      <c r="U9" s="8">
+        <f>Y9*(1+G9)</f>
+        <v/>
+      </c>
+      <c r="V9" s="7">
+        <f>U9*T9</f>
+        <v/>
+      </c>
+      <c r="W9" s="8" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="X9" s="8" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y9" s="8" t="n">
+        <v>3000</v>
+      </c>
+      <c r="Z9" s="8">
+        <f>T9*Y9</f>
+        <v/>
+      </c>
+      <c r="AA9" t="inlineStr">
+        <is>
+          <t>Cargado</t>
+        </is>
+      </c>
     </row>
-    <row r="10">
-      <c r="A10" s="13" t="n">
-        <v>44365</v>
-      </c>
-      <c r="B10" s="13" t="n"/>
-      <c r="C10" s="13" t="n">
-        <v>44365</v>
-      </c>
-      <c r="D10" s="22" t="n">
-        <v>30</v>
-      </c>
-      <c r="E10" s="22" t="inlineStr">
-        <is>
-          <t>Factura</t>
-        </is>
-      </c>
-      <c r="F10" s="22" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="G10" s="12" t="n">
-        <v>0.19</v>
-      </c>
-      <c r="H10" s="12" t="inlineStr">
-        <is>
-          <t>Samuel Rendon SAS</t>
-        </is>
-      </c>
-      <c r="I10" s="41" t="n">
-        <v>901352563</v>
-      </c>
-      <c r="J10" s="22" t="inlineStr">
-        <is>
-          <t>Tuluá</t>
-        </is>
-      </c>
-      <c r="K10" s="22" t="inlineStr">
-        <is>
-          <t>FE2610</t>
-        </is>
-      </c>
-      <c r="L10" s="10" t="inlineStr">
-        <is>
-          <t>Estelar Express</t>
-        </is>
-      </c>
-      <c r="M10" s="27" t="n">
-        <v>15751</v>
-      </c>
-      <c r="N10" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="O10" s="23" t="inlineStr">
-        <is>
-          <t>Luis Rendón</t>
-        </is>
-      </c>
-      <c r="P10" s="22" t="n"/>
-      <c r="Q10" s="22" t="n"/>
-      <c r="R10" s="35" t="n">
-        <v>3</v>
-      </c>
-      <c r="S10" s="35" t="inlineStr">
-        <is>
-          <t>Cabuya</t>
-        </is>
-      </c>
-      <c r="T10" s="9" t="n">
-        <v>24</v>
-      </c>
-      <c r="U10" s="8">
-        <f>Y10*(1+G10)</f>
-        <v/>
-      </c>
-      <c r="V10" s="7">
-        <f>U10*T10</f>
-        <v/>
-      </c>
-      <c r="W10" s="8" t="n">
-        <v>2.76</v>
-      </c>
-      <c r="X10" s="8" t="n">
-        <v>3</v>
-      </c>
-      <c r="Y10" s="8" t="n">
-        <v>3000</v>
-      </c>
-      <c r="Z10" s="8">
-        <f>T10*Y10</f>
-        <v/>
-      </c>
-      <c r="AA10" t="inlineStr">
-        <is>
-          <t>Cargado</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="I14" s="32" t="n"/>
+    <row r="13">
+      <c r="I13" s="26" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Registros.xlsx
+++ b/Registros.xlsx
@@ -601,10 +601,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AA13"/>
+  <dimension ref="A1:AA35"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="H1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="Y12" sqref="Y12"/>
+      <selection activeCell="AA7" sqref="AA7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
@@ -758,147 +758,108 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="13" t="n">
-        <v>44366</v>
-      </c>
-      <c r="B2" s="13" t="n"/>
-      <c r="C2" s="13" t="n">
-        <v>44366</v>
-      </c>
-      <c r="D2" s="16" t="n">
-        <v>6</v>
-      </c>
-      <c r="E2" s="34" t="inlineStr">
-        <is>
-          <t>Factura</t>
-        </is>
-      </c>
-      <c r="F2" s="16" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="G2" s="14" t="n">
-        <v>0.19</v>
-      </c>
-      <c r="H2" s="18" t="inlineStr">
-        <is>
-          <t>Patricia rendon</t>
-        </is>
-      </c>
-      <c r="I2" s="30" t="n">
-        <v>39456079</v>
-      </c>
-      <c r="J2" s="16" t="inlineStr">
-        <is>
-          <t>Armenia</t>
-        </is>
-      </c>
-      <c r="K2" s="16" t="inlineStr">
-        <is>
-          <t>REM4350</t>
-        </is>
-      </c>
-      <c r="L2" s="10" t="inlineStr">
-        <is>
-          <t>Estelar Express</t>
-        </is>
-      </c>
-      <c r="M2" s="16" t="n">
-        <v>14228</v>
-      </c>
-      <c r="N2" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="O2" s="20" t="inlineStr">
-        <is>
-          <t>Luis Rendón</t>
-        </is>
-      </c>
-      <c r="P2" s="16" t="inlineStr">
-        <is>
-          <t>5 pacas</t>
-        </is>
-      </c>
-      <c r="Q2" s="16" t="n"/>
-      <c r="R2" s="28" t="n">
-        <v>1</v>
-      </c>
-      <c r="S2" s="22" t="inlineStr">
-        <is>
-          <t>Fibra 12000</t>
-        </is>
-      </c>
-      <c r="T2" s="9" t="n">
-        <v>320</v>
-      </c>
-      <c r="U2" s="8">
-        <f>Y2*(1+G2)</f>
-        <v/>
-      </c>
-      <c r="V2" s="7">
-        <f>U2*T2</f>
-        <v/>
-      </c>
-      <c r="W2" s="8" t="n">
-        <v>36</v>
-      </c>
-      <c r="X2" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y2" s="8" t="n">
-        <v>11000</v>
-      </c>
-      <c r="Z2" s="19">
-        <f>T2*Y2</f>
-        <v/>
-      </c>
-      <c r="AA2" t="inlineStr">
-        <is>
-          <t>Cargado</t>
-        </is>
-      </c>
+      <c r="A2" s="29" t="n"/>
+      <c r="B2" s="29" t="n"/>
+      <c r="C2" s="29" t="n"/>
+      <c r="D2" s="6" t="n"/>
+      <c r="E2" s="29" t="n"/>
+      <c r="F2" s="29" t="n"/>
+      <c r="G2" s="5" t="n"/>
+      <c r="H2" s="5" t="n"/>
+      <c r="I2" s="29" t="n"/>
+      <c r="J2" s="29" t="n"/>
+      <c r="K2" s="29" t="n"/>
+      <c r="L2" s="29" t="n"/>
+      <c r="M2" s="4" t="n"/>
+      <c r="N2" s="29" t="n"/>
+      <c r="O2" s="29" t="n"/>
+      <c r="P2" s="29" t="n"/>
+      <c r="Q2" s="29" t="n"/>
+      <c r="R2" s="29" t="n"/>
+      <c r="S2" s="29" t="n"/>
+      <c r="T2" s="29" t="n"/>
+      <c r="U2" s="3" t="n"/>
+      <c r="V2" s="3" t="n"/>
+      <c r="W2" s="3" t="n"/>
+      <c r="X2" s="3" t="n"/>
+      <c r="Y2" s="2" t="n"/>
+      <c r="Z2" s="2" t="n"/>
+      <c r="AA2" s="1" t="n"/>
     </row>
     <row r="3">
-      <c r="A3" s="13" t="n"/>
+      <c r="A3" s="13" t="n">
+        <v>44366</v>
+      </c>
       <c r="B3" s="13" t="n"/>
-      <c r="C3" s="13" t="n"/>
-      <c r="D3" s="16" t="n"/>
-      <c r="E3" s="16" t="inlineStr">
-        <is>
-          <t xml:space="preserve">     </t>
+      <c r="C3" s="13" t="n">
+        <v>44366</v>
+      </c>
+      <c r="D3" s="16" t="n">
+        <v>6</v>
+      </c>
+      <c r="E3" s="34" t="inlineStr">
+        <is>
+          <t>Factura</t>
         </is>
       </c>
       <c r="F3" s="16" t="inlineStr">
         <is>
-          <t xml:space="preserve">     </t>
-        </is>
-      </c>
-      <c r="G3" s="12" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="H3" s="12" t="n"/>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="G3" s="14" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="H3" s="18" t="inlineStr">
+        <is>
+          <t>Patricia rendon</t>
+        </is>
+      </c>
+      <c r="I3" s="30" t="n">
+        <v>39456079</v>
+      </c>
       <c r="J3" s="16" t="inlineStr">
         <is>
-          <t xml:space="preserve">     </t>
-        </is>
-      </c>
-      <c r="L3" s="10" t="n"/>
-      <c r="M3" s="11" t="n"/>
-      <c r="N3" s="10" t="n"/>
-      <c r="O3" s="10" t="n"/>
-      <c r="P3" s="16" t="n"/>
+          <t>Armenia</t>
+        </is>
+      </c>
+      <c r="K3" s="16" t="inlineStr">
+        <is>
+          <t>REM4350</t>
+        </is>
+      </c>
+      <c r="L3" s="10" t="inlineStr">
+        <is>
+          <t>Estelar Express</t>
+        </is>
+      </c>
+      <c r="M3" s="16" t="n">
+        <v>14228</v>
+      </c>
+      <c r="N3" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="O3" s="20" t="inlineStr">
+        <is>
+          <t>Luis Rendón</t>
+        </is>
+      </c>
+      <c r="P3" s="16" t="inlineStr">
+        <is>
+          <t>5 pacas</t>
+        </is>
+      </c>
       <c r="Q3" s="16" t="n"/>
       <c r="R3" s="28" t="n">
-        <v>2</v>
-      </c>
-      <c r="S3" s="10" t="inlineStr">
-        <is>
-          <t>Herradura</t>
+        <v>1</v>
+      </c>
+      <c r="S3" s="22" t="inlineStr">
+        <is>
+          <t>Fibra 12000</t>
         </is>
       </c>
       <c r="T3" s="9" t="n">
-        <v>30</v>
+        <v>320</v>
       </c>
       <c r="U3" s="8">
         <f>Y3*(1+G3)</f>
@@ -909,15 +870,22 @@
         <v/>
       </c>
       <c r="W3" s="8" t="n">
-        <v>30</v>
-      </c>
-      <c r="X3" s="8" t="n"/>
+        <v>36</v>
+      </c>
+      <c r="X3" s="8" t="n">
+        <v>1</v>
+      </c>
       <c r="Y3" s="8" t="n">
-        <v>12000</v>
-      </c>
-      <c r="Z3" s="8">
+        <v>11000</v>
+      </c>
+      <c r="Z3" s="19">
         <f>T3*Y3</f>
         <v/>
+      </c>
+      <c r="AA3" t="inlineStr">
+        <is>
+          <t>Cargado</t>
+        </is>
       </c>
     </row>
     <row r="4">
@@ -925,15 +893,25 @@
       <c r="B4" s="13" t="n"/>
       <c r="C4" s="13" t="n"/>
       <c r="D4" s="16" t="n"/>
-      <c r="E4" s="16" t="n"/>
-      <c r="F4" s="16" t="n"/>
+      <c r="E4" s="16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">     </t>
+        </is>
+      </c>
+      <c r="F4" s="16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">     </t>
+        </is>
+      </c>
       <c r="G4" s="12" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="H4" s="12" t="n"/>
-      <c r="I4" s="32" t="n"/>
-      <c r="J4" s="16" t="n"/>
-      <c r="K4" s="16" t="n"/>
+      <c r="J4" s="16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">     </t>
+        </is>
+      </c>
       <c r="L4" s="10" t="n"/>
       <c r="M4" s="11" t="n"/>
       <c r="N4" s="10" t="n"/>
@@ -941,15 +919,15 @@
       <c r="P4" s="16" t="n"/>
       <c r="Q4" s="16" t="n"/>
       <c r="R4" s="28" t="n">
-        <v>3</v>
-      </c>
-      <c r="S4" s="28" t="inlineStr">
-        <is>
-          <t>Cabuya</t>
+        <v>2</v>
+      </c>
+      <c r="S4" s="10" t="inlineStr">
+        <is>
+          <t>Herradura</t>
         </is>
       </c>
       <c r="T4" s="9" t="n">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="U4" s="8">
         <f>Y4*(1+G4)</f>
@@ -960,13 +938,11 @@
         <v/>
       </c>
       <c r="W4" s="8" t="n">
-        <v>2.76</v>
-      </c>
-      <c r="X4" s="8" t="n">
-        <v>3</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="X4" s="8" t="n"/>
       <c r="Y4" s="8" t="n">
-        <v>3000</v>
+        <v>12000</v>
       </c>
       <c r="Z4" s="8">
         <f>T4*Y4</f>
@@ -974,158 +950,155 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="29" t="n"/>
-      <c r="B5" s="29" t="n"/>
-      <c r="C5" s="29" t="n"/>
-      <c r="D5" s="6" t="n"/>
-      <c r="E5" s="29" t="n"/>
-      <c r="F5" s="29" t="n"/>
-      <c r="G5" s="5" t="n"/>
-      <c r="H5" s="5" t="n"/>
-      <c r="I5" s="29" t="n"/>
-      <c r="J5" s="29" t="n"/>
-      <c r="K5" s="29" t="n"/>
-      <c r="L5" s="29" t="n"/>
-      <c r="M5" s="4" t="n"/>
-      <c r="N5" s="29" t="n"/>
-      <c r="O5" s="29" t="n"/>
-      <c r="P5" s="29" t="n"/>
-      <c r="Q5" s="29" t="n"/>
-      <c r="R5" s="29" t="n"/>
-      <c r="S5" s="29" t="n"/>
-      <c r="T5" s="29" t="n"/>
-      <c r="U5" s="3" t="n"/>
-      <c r="V5" s="3" t="n"/>
-      <c r="W5" s="3" t="n"/>
-      <c r="X5" s="3" t="n"/>
-      <c r="Y5" s="2" t="n"/>
-      <c r="Z5" s="2" t="n"/>
-      <c r="AA5" s="1" t="n"/>
+      <c r="A5" s="13" t="n"/>
+      <c r="B5" s="13" t="n"/>
+      <c r="C5" s="13" t="n"/>
+      <c r="D5" s="16" t="n"/>
+      <c r="E5" s="16" t="n"/>
+      <c r="F5" s="16" t="n"/>
+      <c r="G5" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" s="12" t="n"/>
+      <c r="I5" s="32" t="n"/>
+      <c r="J5" s="16" t="n"/>
+      <c r="K5" s="16" t="n"/>
+      <c r="L5" s="10" t="n"/>
+      <c r="M5" s="11" t="n"/>
+      <c r="N5" s="10" t="n"/>
+      <c r="O5" s="10" t="n"/>
+      <c r="P5" s="16" t="n"/>
+      <c r="Q5" s="16" t="n"/>
+      <c r="R5" s="28" t="n">
+        <v>3</v>
+      </c>
+      <c r="S5" s="28" t="inlineStr">
+        <is>
+          <t>Cabuya</t>
+        </is>
+      </c>
+      <c r="T5" s="9" t="n">
+        <v>24</v>
+      </c>
+      <c r="U5" s="8">
+        <f>Y5*(1+G5)</f>
+        <v/>
+      </c>
+      <c r="V5" s="7">
+        <f>U5*T5</f>
+        <v/>
+      </c>
+      <c r="W5" s="8" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="X5" s="8" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y5" s="8" t="n">
+        <v>3000</v>
+      </c>
+      <c r="Z5" s="8">
+        <f>T5*Y5</f>
+        <v/>
+      </c>
     </row>
     <row r="6">
-      <c r="A6" s="13" t="n">
-        <v>44365</v>
-      </c>
-      <c r="B6" s="13" t="n"/>
-      <c r="C6" s="24" t="n">
-        <v>44365</v>
-      </c>
-      <c r="D6" s="16" t="n">
-        <v>30</v>
-      </c>
-      <c r="E6" s="16" t="inlineStr">
-        <is>
-          <t>Remision</t>
-        </is>
-      </c>
-      <c r="F6" s="16" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="G6" s="12" t="n"/>
-      <c r="H6" s="12" t="inlineStr">
-        <is>
-          <t>Samuel rendon</t>
-        </is>
-      </c>
-      <c r="I6" s="33" t="n">
-        <v>3560832</v>
-      </c>
-      <c r="J6" s="16" t="inlineStr">
-        <is>
-          <t>Tuluá</t>
-        </is>
-      </c>
-      <c r="K6" s="16" t="inlineStr">
-        <is>
-          <t>FE2610</t>
-        </is>
-      </c>
-      <c r="L6" s="10" t="inlineStr">
-        <is>
-          <t>Estelar Express</t>
-        </is>
-      </c>
-      <c r="M6" s="21" t="n">
-        <v>15751</v>
-      </c>
-      <c r="N6" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="O6" s="17" t="inlineStr">
-        <is>
-          <t>Luis Rendón</t>
-        </is>
-      </c>
-      <c r="P6" s="16" t="n"/>
-      <c r="Q6" s="16" t="n"/>
-      <c r="R6" s="28" t="n">
-        <v>1</v>
-      </c>
-      <c r="S6" s="22" t="inlineStr">
-        <is>
-          <t>Fibra 12000</t>
-        </is>
-      </c>
-      <c r="T6" s="9" t="n">
-        <v>320</v>
-      </c>
-      <c r="U6" s="8">
-        <f>Y6*(1+G6)</f>
-        <v/>
-      </c>
-      <c r="V6" s="7">
-        <f>U6*T6</f>
-        <v/>
-      </c>
-      <c r="W6" s="8" t="n">
-        <v>36</v>
-      </c>
-      <c r="X6" s="8" t="n">
-        <v>2</v>
-      </c>
-      <c r="Y6" s="8" t="n">
-        <v>11000</v>
-      </c>
-      <c r="Z6" s="19">
-        <f>T6*Y6</f>
-        <v/>
-      </c>
-      <c r="AA6" t="inlineStr">
-        <is>
-          <t>Cargado</t>
-        </is>
-      </c>
+      <c r="A6" s="29" t="n"/>
+      <c r="B6" s="29" t="n"/>
+      <c r="C6" s="29" t="n"/>
+      <c r="D6" s="6" t="n"/>
+      <c r="E6" s="29" t="n"/>
+      <c r="F6" s="29" t="n"/>
+      <c r="G6" s="5" t="n"/>
+      <c r="H6" s="5" t="n"/>
+      <c r="I6" s="29" t="n"/>
+      <c r="J6" s="29" t="n"/>
+      <c r="K6" s="29" t="n"/>
+      <c r="L6" s="29" t="n"/>
+      <c r="M6" s="4" t="n"/>
+      <c r="N6" s="29" t="n"/>
+      <c r="O6" s="29" t="n"/>
+      <c r="P6" s="29" t="n"/>
+      <c r="Q6" s="29" t="n"/>
+      <c r="R6" s="29" t="n"/>
+      <c r="S6" s="29" t="n"/>
+      <c r="T6" s="29" t="n"/>
+      <c r="U6" s="3" t="n"/>
+      <c r="V6" s="3" t="n"/>
+      <c r="W6" s="3" t="n"/>
+      <c r="X6" s="3" t="n"/>
+      <c r="Y6" s="2" t="n"/>
+      <c r="Z6" s="2" t="n"/>
+      <c r="AA6" s="1" t="n"/>
     </row>
     <row r="7">
-      <c r="A7" s="15" t="n"/>
-      <c r="B7" s="15" t="n"/>
-      <c r="C7" s="15" t="n"/>
-      <c r="D7" s="16" t="n"/>
-      <c r="E7" s="16" t="n"/>
-      <c r="F7" s="16" t="n"/>
+      <c r="A7" s="13" t="n">
+        <v>44365</v>
+      </c>
+      <c r="B7" s="13" t="n"/>
+      <c r="C7" s="24" t="n">
+        <v>44365</v>
+      </c>
+      <c r="D7" s="16" t="n">
+        <v>30</v>
+      </c>
+      <c r="E7" s="16" t="inlineStr">
+        <is>
+          <t>Remision</t>
+        </is>
+      </c>
+      <c r="F7" s="16" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
       <c r="G7" s="12" t="n"/>
-      <c r="H7" s="12" t="n"/>
-      <c r="I7" s="32" t="n"/>
-      <c r="J7" s="15" t="n"/>
-      <c r="K7" s="15" t="n"/>
-      <c r="L7" s="10" t="n"/>
-      <c r="M7" s="11" t="n"/>
-      <c r="N7" s="10" t="n"/>
-      <c r="O7" s="10" t="n"/>
+      <c r="H7" s="12" t="inlineStr">
+        <is>
+          <t>Samuel rendon</t>
+        </is>
+      </c>
+      <c r="I7" s="33" t="n">
+        <v>3560832</v>
+      </c>
+      <c r="J7" s="16" t="inlineStr">
+        <is>
+          <t>Tuluá</t>
+        </is>
+      </c>
+      <c r="K7" s="16" t="inlineStr">
+        <is>
+          <t>FE2610</t>
+        </is>
+      </c>
+      <c r="L7" s="10" t="inlineStr">
+        <is>
+          <t>Estelar Express</t>
+        </is>
+      </c>
+      <c r="M7" s="21" t="n">
+        <v>15751</v>
+      </c>
+      <c r="N7" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="O7" s="17" t="inlineStr">
+        <is>
+          <t>Luis Rendón</t>
+        </is>
+      </c>
       <c r="P7" s="16" t="n"/>
       <c r="Q7" s="16" t="n"/>
       <c r="R7" s="28" t="n">
-        <v>2</v>
-      </c>
-      <c r="S7" s="10" t="inlineStr">
-        <is>
-          <t>Herradura</t>
+        <v>1</v>
+      </c>
+      <c r="S7" s="22" t="inlineStr">
+        <is>
+          <t>Fibra 12000</t>
         </is>
       </c>
       <c r="T7" s="9" t="n">
-        <v>30</v>
+        <v>320</v>
       </c>
       <c r="U7" s="8">
         <f>Y7*(1+G7)</f>
@@ -1136,147 +1109,212 @@
         <v/>
       </c>
       <c r="W7" s="8" t="n">
-        <v>30</v>
-      </c>
-      <c r="X7" s="8" t="n"/>
+        <v>36</v>
+      </c>
+      <c r="X7" s="8" t="n">
+        <v>2</v>
+      </c>
       <c r="Y7" s="8" t="n">
-        <v>12000</v>
-      </c>
-      <c r="Z7" s="8">
+        <v>11000</v>
+      </c>
+      <c r="Z7" s="19">
         <f>T7*Y7</f>
         <v/>
+      </c>
+      <c r="AA7" t="inlineStr">
+        <is>
+          <t>Cargado</t>
+        </is>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="29" t="n"/>
-      <c r="B8" s="29" t="n"/>
-      <c r="C8" s="29" t="n"/>
-      <c r="D8" s="29" t="n"/>
-      <c r="E8" s="29" t="n"/>
-      <c r="F8" s="29" t="n"/>
-      <c r="G8" s="5" t="n"/>
-      <c r="H8" s="5" t="n"/>
-      <c r="I8" s="29" t="n"/>
-      <c r="J8" s="29" t="n"/>
-      <c r="K8" s="29" t="n"/>
-      <c r="L8" s="29" t="n"/>
-      <c r="M8" s="4" t="n"/>
-      <c r="N8" s="29" t="n"/>
-      <c r="O8" s="29" t="n"/>
-      <c r="P8" s="29" t="n"/>
-      <c r="Q8" s="29" t="n"/>
-      <c r="R8" s="29" t="n"/>
-      <c r="S8" s="29" t="n"/>
-      <c r="T8" s="29" t="n"/>
-      <c r="U8" s="3" t="n"/>
-      <c r="V8" s="3" t="n"/>
-      <c r="W8" s="3" t="n"/>
-      <c r="X8" s="3" t="n"/>
-      <c r="Y8" s="2" t="n"/>
-      <c r="Z8" s="2" t="n"/>
-      <c r="AA8" s="1" t="n"/>
+      <c r="A8" s="15" t="n"/>
+      <c r="B8" s="15" t="n"/>
+      <c r="C8" s="15" t="n"/>
+      <c r="D8" s="16" t="n"/>
+      <c r="E8" s="16" t="n"/>
+      <c r="F8" s="16" t="n"/>
+      <c r="G8" s="12" t="n"/>
+      <c r="H8" s="12" t="n"/>
+      <c r="I8" s="32" t="n"/>
+      <c r="J8" s="15" t="n"/>
+      <c r="K8" s="15" t="n"/>
+      <c r="L8" s="10" t="n"/>
+      <c r="M8" s="11" t="n"/>
+      <c r="N8" s="10" t="n"/>
+      <c r="O8" s="10" t="n"/>
+      <c r="P8" s="16" t="n"/>
+      <c r="Q8" s="16" t="n"/>
+      <c r="R8" s="28" t="n">
+        <v>2</v>
+      </c>
+      <c r="S8" s="10" t="inlineStr">
+        <is>
+          <t>Herradura</t>
+        </is>
+      </c>
+      <c r="T8" s="9" t="n">
+        <v>30</v>
+      </c>
+      <c r="U8" s="8">
+        <f>Y8*(1+G8)</f>
+        <v/>
+      </c>
+      <c r="V8" s="7">
+        <f>U8*T8</f>
+        <v/>
+      </c>
+      <c r="W8" s="8" t="n">
+        <v>30</v>
+      </c>
+      <c r="X8" s="8" t="n"/>
+      <c r="Y8" s="8" t="n">
+        <v>12000</v>
+      </c>
+      <c r="Z8" s="8">
+        <f>T8*Y8</f>
+        <v/>
+      </c>
     </row>
     <row r="9">
-      <c r="A9" s="13" t="n">
+      <c r="A9" s="29" t="n"/>
+      <c r="B9" s="29" t="n"/>
+      <c r="C9" s="29" t="n"/>
+      <c r="D9" s="29" t="n"/>
+      <c r="E9" s="29" t="n"/>
+      <c r="F9" s="29" t="n"/>
+      <c r="G9" s="5" t="n"/>
+      <c r="H9" s="5" t="n"/>
+      <c r="I9" s="29" t="n"/>
+      <c r="J9" s="29" t="n"/>
+      <c r="K9" s="29" t="n"/>
+      <c r="L9" s="29" t="n"/>
+      <c r="M9" s="4" t="n"/>
+      <c r="N9" s="29" t="n"/>
+      <c r="O9" s="29" t="n"/>
+      <c r="P9" s="29" t="n"/>
+      <c r="Q9" s="29" t="n"/>
+      <c r="R9" s="29" t="n"/>
+      <c r="S9" s="29" t="n"/>
+      <c r="T9" s="29" t="n"/>
+      <c r="U9" s="3" t="n"/>
+      <c r="V9" s="3" t="n"/>
+      <c r="W9" s="3" t="n"/>
+      <c r="X9" s="3" t="n"/>
+      <c r="Y9" s="2" t="n"/>
+      <c r="Z9" s="2" t="n"/>
+      <c r="AA9" s="1" t="n"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="13" t="n">
         <v>44365</v>
       </c>
-      <c r="B9" s="13" t="n"/>
-      <c r="C9" s="13" t="n">
+      <c r="B10" s="13" t="n"/>
+      <c r="C10" s="13" t="n">
         <v>44365</v>
       </c>
-      <c r="D9" s="16" t="n">
+      <c r="D10" s="16" t="n">
         <v>30</v>
       </c>
-      <c r="E9" s="16" t="inlineStr">
+      <c r="E10" s="16" t="inlineStr">
         <is>
           <t>Factura</t>
         </is>
       </c>
-      <c r="F9" s="16" t="inlineStr">
+      <c r="F10" s="16" t="inlineStr">
         <is>
           <t>NO</t>
         </is>
       </c>
-      <c r="G9" s="12" t="n">
+      <c r="G10" s="12" t="n">
         <v>0.19</v>
       </c>
-      <c r="H9" s="12" t="inlineStr">
+      <c r="H10" s="12" t="inlineStr">
         <is>
           <t>Samuel Rendon SAS</t>
         </is>
       </c>
-      <c r="I9" s="33" t="n">
+      <c r="I10" s="33" t="n">
         <v>901352563</v>
       </c>
-      <c r="J9" s="16" t="inlineStr">
+      <c r="J10" s="16" t="inlineStr">
         <is>
           <t>Tuluá</t>
         </is>
       </c>
-      <c r="K9" s="16" t="inlineStr">
+      <c r="K10" s="16" t="inlineStr">
         <is>
           <t>FE2610</t>
         </is>
       </c>
-      <c r="L9" s="10" t="inlineStr">
+      <c r="L10" s="10" t="inlineStr">
         <is>
           <t>Estelar Express</t>
         </is>
       </c>
-      <c r="M9" s="21" t="n">
+      <c r="M10" s="21" t="n">
         <v>15751</v>
       </c>
-      <c r="N9" s="10" t="n">
+      <c r="N10" s="10" t="n">
         <v>1</v>
       </c>
-      <c r="O9" s="17" t="inlineStr">
+      <c r="O10" s="17" t="inlineStr">
         <is>
           <t>Luis Rendón</t>
         </is>
       </c>
-      <c r="P9" s="16" t="n"/>
-      <c r="Q9" s="16" t="n"/>
-      <c r="R9" s="28" t="n">
+      <c r="P10" s="16" t="n"/>
+      <c r="Q10" s="16" t="n"/>
+      <c r="R10" s="28" t="n">
         <v>3</v>
       </c>
-      <c r="S9" s="28" t="inlineStr">
+      <c r="S10" s="28" t="inlineStr">
         <is>
           <t>Cabuya</t>
         </is>
       </c>
-      <c r="T9" s="9" t="n">
+      <c r="T10" s="9" t="n">
         <v>24</v>
       </c>
-      <c r="U9" s="8">
-        <f>Y9*(1+G9)</f>
-        <v/>
-      </c>
-      <c r="V9" s="7">
-        <f>U9*T9</f>
-        <v/>
-      </c>
-      <c r="W9" s="8" t="n">
+      <c r="U10" s="8">
+        <f>Y10*(1+G10)</f>
+        <v/>
+      </c>
+      <c r="V10" s="7">
+        <f>U10*T10</f>
+        <v/>
+      </c>
+      <c r="W10" s="8" t="n">
         <v>2.76</v>
       </c>
-      <c r="X9" s="8" t="n">
+      <c r="X10" s="8" t="n">
         <v>3</v>
       </c>
-      <c r="Y9" s="8" t="n">
+      <c r="Y10" s="8" t="n">
         <v>3000</v>
       </c>
-      <c r="Z9" s="8">
-        <f>T9*Y9</f>
-        <v/>
-      </c>
-      <c r="AA9" t="inlineStr">
+      <c r="Z10" s="8">
+        <f>T10*Y10</f>
+        <v/>
+      </c>
+      <c r="AA10" t="inlineStr">
         <is>
           <t>Cargado</t>
         </is>
       </c>
     </row>
-    <row r="13">
-      <c r="I13" s="26" t="n"/>
+    <row r="12">
+      <c r="Y12" s="26" t="n"/>
     </row>
+    <row r="14">
+      <c r="I14" s="26" t="n"/>
+    </row>
+    <row r="24"/>
+    <row r="25"/>
+    <row r="27"/>
+    <row r="29"/>
+    <row r="31"/>
+    <row r="35"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9"/>

--- a/Registros.xlsx
+++ b/Registros.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="ENVIABLES" sheetId="1" state="visible" r:id="rId1"/>
@@ -601,10 +601,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AA35"/>
+  <dimension ref="A1:AA14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="AA7" sqref="AA7"/>
+    <sheetView tabSelected="1" topLeftCell="O1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="AA10" sqref="AA10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
@@ -1309,12 +1309,6 @@
     <row r="14">
       <c r="I14" s="26" t="n"/>
     </row>
-    <row r="24"/>
-    <row r="25"/>
-    <row r="27"/>
-    <row r="29"/>
-    <row r="31"/>
-    <row r="35"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9"/>

--- a/Registros.xlsx
+++ b/Registros.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="ENVIABLES" sheetId="1" state="visible" r:id="rId1"/>
@@ -603,7 +603,7 @@
   </sheetPr>
   <dimension ref="A1:AA14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <selection activeCell="AA10" sqref="AA10"/>
     </sheetView>
   </sheetViews>

--- a/Registros.xlsx
+++ b/Registros.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="28680" yWindow="-3045" windowWidth="29040" windowHeight="15720" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="ENVIABLES" sheetId="1" state="visible" r:id="rId1"/>
@@ -604,7 +604,7 @@
   <dimension ref="A1:AA14"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="I1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="AA10" sqref="AA10"/>
+      <selection activeCell="AA3" sqref="AA3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>

--- a/Registros.xlsx
+++ b/Registros.xlsx
@@ -604,7 +604,7 @@
   <dimension ref="A1:AA14"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="I1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="AA3" sqref="AA3"/>
+      <selection activeCell="AA10" sqref="AA10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>

--- a/Registros.xlsx
+++ b/Registros.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bmont\Documents\Funny\Python\Alegra\alegraApp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82C727A8-98A0-4206-9138-CC009670E2E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59142F14-8A53-4DAA-A2C9-E361DC21291A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -196,9 +196,6 @@
     <t>Costal payaso</t>
   </si>
   <si>
-    <t>Cargado</t>
-  </si>
-  <si>
     <t>#REF!</t>
   </si>
   <si>
@@ -284,6 +281,9 @@
   </si>
   <si>
     <t xml:space="preserve">Herradura artesanal # 26 </t>
+  </si>
+  <si>
+    <t>Pendiente</t>
   </si>
 </sst>
 </file>
@@ -853,7 +853,7 @@
   <dimension ref="A1:RB29"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="N1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="R15" sqref="R15"/>
+      <selection activeCell="Z2" sqref="Z2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1510,100 +1510,100 @@
       </c>
       <c r="Y2" s="52"/>
       <c r="Z2" s="52" t="s">
-        <v>46</v>
+        <v>75</v>
       </c>
       <c r="AA2" s="52"/>
       <c r="AB2" s="71"/>
       <c r="AC2" s="41" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AD2" s="41" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AE2" s="53"/>
       <c r="AF2" s="54" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AG2" s="54" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AH2" s="54" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AI2" s="54" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AJ2" s="52" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AK2" s="52" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AL2" s="52" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AM2" s="52" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AN2" s="52" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AO2" s="52" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AP2" s="52" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AQ2" s="54" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AR2" s="55" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AS2" s="54" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AT2" s="54" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AU2" s="56"/>
       <c r="AV2" s="52" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AW2" s="52" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AX2" s="52" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AY2" s="52" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AZ2" s="55" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="BA2" s="54" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="BB2" s="53"/>
       <c r="BC2" s="52" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="BD2" s="52" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="BE2" s="52" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="BF2" s="52" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="BG2" s="53"/>
       <c r="BH2" s="52" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="BI2" s="52" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="BJ2" s="44"/>
       <c r="BK2" s="44"/>
@@ -2035,10 +2035,10 @@
       <c r="O3" s="44"/>
       <c r="P3" s="45"/>
       <c r="Q3" s="46" t="s">
+        <v>47</v>
+      </c>
+      <c r="R3" s="43" t="s">
         <v>48</v>
-      </c>
-      <c r="R3" s="43" t="s">
-        <v>49</v>
       </c>
       <c r="S3" s="47">
         <v>24</v>
@@ -2062,95 +2062,95 @@
       <c r="AA3" s="52"/>
       <c r="AB3" s="71"/>
       <c r="AC3" s="41" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AD3" s="41" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AE3" s="53"/>
       <c r="AF3" s="54" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AG3" s="54" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AH3" s="54" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AI3" s="54" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AJ3" s="52" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AK3" s="52" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AL3" s="52" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AM3" s="52" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AN3" s="52" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AO3" s="52" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AP3" s="52" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AQ3" s="54" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AR3" s="55" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AS3" s="54" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AT3" s="54" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AU3" s="56"/>
       <c r="AV3" s="52" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AW3" s="52" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AX3" s="52" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AY3" s="52" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AZ3" s="52" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="BA3" s="52" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="BB3" s="53"/>
       <c r="BC3" s="52" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="BD3" s="52" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="BE3" s="52" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="BF3" s="52" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="BG3" s="53"/>
       <c r="BH3" s="52" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="BI3" s="52" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="BJ3" s="44"/>
       <c r="BK3" s="44"/>
@@ -2582,10 +2582,10 @@
       <c r="O4" s="44"/>
       <c r="P4" s="45"/>
       <c r="Q4" s="46" t="s">
+        <v>49</v>
+      </c>
+      <c r="R4" s="43" t="s">
         <v>50</v>
-      </c>
-      <c r="R4" s="43" t="s">
-        <v>51</v>
       </c>
       <c r="S4" s="47">
         <v>24</v>
@@ -2609,95 +2609,95 @@
       <c r="AA4" s="52"/>
       <c r="AB4" s="59"/>
       <c r="AC4" s="41" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AD4" s="41" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AE4" s="53"/>
       <c r="AF4" s="54" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AG4" s="54" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AH4" s="54" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AI4" s="54" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AJ4" s="52" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AK4" s="52" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AL4" s="52" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AM4" s="52" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AN4" s="52" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AO4" s="52" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AP4" s="52" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AQ4" s="54" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AR4" s="55" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AS4" s="54" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AT4" s="54" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AU4" s="56"/>
       <c r="AV4" s="52" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AW4" s="52" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AX4" s="55" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AY4" s="54" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AZ4" s="55" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="BA4" s="54" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="BB4" s="53"/>
       <c r="BC4" s="52" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="BD4" s="52" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="BE4" s="52" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="BF4" s="52" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="BG4" s="53"/>
       <c r="BH4" s="52" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="BI4" s="52" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="BJ4" s="44"/>
       <c r="BK4" s="44"/>
@@ -3132,7 +3132,7 @@
         <v>44</v>
       </c>
       <c r="R5" s="43" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="S5" s="47">
         <v>36</v>
@@ -3154,95 +3154,95 @@
       <c r="AA5" s="52"/>
       <c r="AB5" s="71"/>
       <c r="AC5" s="41" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AD5" s="41" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AE5" s="53"/>
       <c r="AF5" s="54" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AG5" s="54" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AH5" s="54" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AI5" s="54" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AJ5" s="52" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AK5" s="52" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AL5" s="52" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AM5" s="52" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AN5" s="52" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AO5" s="52" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AP5" s="52" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AQ5" s="54" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AR5" s="55" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AS5" s="54" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AT5" s="54" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AU5" s="56"/>
       <c r="AV5" s="52" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AW5" s="52" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AX5" s="52" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AY5" s="52" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AZ5" s="52" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="BA5" s="52" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="BB5" s="53"/>
       <c r="BC5" s="52" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="BD5" s="52" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="BE5" s="52" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="BF5" s="52" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="BG5" s="53"/>
       <c r="BH5" s="52" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="BI5" s="52" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="BJ5" s="44"/>
       <c r="BK5" s="44"/>
@@ -3677,7 +3677,7 @@
         <v>44</v>
       </c>
       <c r="R6" s="43" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="S6" s="47">
         <v>12</v>
@@ -3701,95 +3701,95 @@
       <c r="AA6" s="52"/>
       <c r="AB6" s="59"/>
       <c r="AC6" s="41" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AD6" s="41" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AE6" s="53"/>
       <c r="AF6" s="54" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AG6" s="54" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AH6" s="54" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AI6" s="54" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AJ6" s="52" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AK6" s="52" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AL6" s="52" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AM6" s="52" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AN6" s="52" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AO6" s="52" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AP6" s="52" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AQ6" s="54" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AR6" s="55" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AS6" s="54" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AT6" s="54" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AU6" s="56"/>
       <c r="AV6" s="52" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AW6" s="52" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AX6" s="52" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AY6" s="52" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AZ6" s="55" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="BA6" s="54" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="BB6" s="53"/>
       <c r="BC6" s="52" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="BD6" s="52" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="BE6" s="52" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="BF6" s="52" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="BG6" s="53"/>
       <c r="BH6" s="52" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="BI6" s="52" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="BJ6" s="44"/>
       <c r="BK6" s="44"/>
@@ -4224,7 +4224,7 @@
         <v>44</v>
       </c>
       <c r="R7" s="43" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="S7" s="47">
         <v>12</v>
@@ -4246,95 +4246,95 @@
       <c r="AA7" s="52"/>
       <c r="AB7" s="59"/>
       <c r="AC7" s="41" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AD7" s="41" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AE7" s="53"/>
       <c r="AF7" s="54" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AG7" s="54" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AH7" s="54" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AI7" s="54" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AJ7" s="52" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AK7" s="52" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AL7" s="52" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AM7" s="52" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AN7" s="52" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AO7" s="52" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AP7" s="52" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AQ7" s="54" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AR7" s="55" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AS7" s="54" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AT7" s="54" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AU7" s="56"/>
       <c r="AV7" s="52" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AW7" s="52" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AX7" s="52" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AY7" s="52" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AZ7" s="55" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="BA7" s="54" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="BB7" s="53"/>
       <c r="BC7" s="52" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="BD7" s="52" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="BE7" s="52" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="BF7" s="52" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="BG7" s="53"/>
       <c r="BH7" s="52" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="BI7" s="52" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="BJ7" s="44"/>
       <c r="BK7" s="44"/>
@@ -4769,7 +4769,7 @@
         <v>44</v>
       </c>
       <c r="R8" s="43" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="S8" s="47">
         <v>12</v>
@@ -4791,95 +4791,95 @@
       <c r="AA8" s="52"/>
       <c r="AB8" s="59"/>
       <c r="AC8" s="41" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AD8" s="41" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AE8" s="53"/>
       <c r="AF8" s="54" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AG8" s="54" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AH8" s="54" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AI8" s="54" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AJ8" s="52" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AK8" s="52" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AL8" s="52" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AM8" s="52" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AN8" s="52" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AO8" s="52" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AP8" s="52" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AQ8" s="54" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AR8" s="55" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AS8" s="54" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AT8" s="54" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AU8" s="56"/>
       <c r="AV8" s="52" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AW8" s="52" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AX8" s="52" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AY8" s="52" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AZ8" s="55" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="BA8" s="54" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="BB8" s="53"/>
       <c r="BC8" s="52" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="BD8" s="52" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="BE8" s="52" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="BF8" s="52" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="BG8" s="53"/>
       <c r="BH8" s="52" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="BI8" s="52" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="BJ8" s="44"/>
       <c r="BK8" s="44"/>
@@ -5314,7 +5314,7 @@
         <v>44</v>
       </c>
       <c r="R9" s="43" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="S9" s="47">
         <v>12</v>
@@ -5336,95 +5336,95 @@
       <c r="AA9" s="52"/>
       <c r="AB9" s="59"/>
       <c r="AC9" s="41" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AD9" s="41" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AE9" s="53"/>
       <c r="AF9" s="54" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AG9" s="54" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AH9" s="54" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AI9" s="54" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AJ9" s="52" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AK9" s="52" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AL9" s="52" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AM9" s="52" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AN9" s="52" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AO9" s="52" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AP9" s="52" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AQ9" s="54" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AR9" s="55" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AS9" s="54" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AT9" s="54" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AU9" s="56"/>
       <c r="AV9" s="52" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AW9" s="52" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AX9" s="52" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AY9" s="52" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AZ9" s="55" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="BA9" s="54" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="BB9" s="53"/>
       <c r="BC9" s="52" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="BD9" s="52" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="BE9" s="52" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="BF9" s="52" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="BG9" s="53"/>
       <c r="BH9" s="52" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="BI9" s="52" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="BJ9" s="44"/>
       <c r="BK9" s="44"/>
@@ -5859,7 +5859,7 @@
         <v>44</v>
       </c>
       <c r="R10" s="43" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="S10" s="47">
         <v>12</v>
@@ -5881,95 +5881,95 @@
       <c r="AA10" s="52"/>
       <c r="AB10" s="59"/>
       <c r="AC10" s="41" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AD10" s="41" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AE10" s="53"/>
       <c r="AF10" s="54" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AG10" s="54" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AH10" s="54" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AI10" s="54" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AJ10" s="52" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AK10" s="52" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AL10" s="52" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AM10" s="52" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AN10" s="52" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AO10" s="52" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AP10" s="52" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AQ10" s="54" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AR10" s="55" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AS10" s="54" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AT10" s="54" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AU10" s="56"/>
       <c r="AV10" s="52" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AW10" s="52" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AX10" s="52" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AY10" s="52" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AZ10" s="55" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="BA10" s="54" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="BB10" s="53"/>
       <c r="BC10" s="52" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="BD10" s="52" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="BE10" s="52" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="BF10" s="52" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="BG10" s="53"/>
       <c r="BH10" s="52" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="BI10" s="52" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="BJ10" s="44"/>
       <c r="BK10" s="44"/>
@@ -6404,7 +6404,7 @@
         <v>44</v>
       </c>
       <c r="R11" s="61" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="S11" s="62">
         <v>6</v>
@@ -6426,95 +6426,95 @@
       <c r="AA11" s="52"/>
       <c r="AB11" s="71"/>
       <c r="AC11" s="41" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AD11" s="41" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AE11" s="53"/>
       <c r="AF11" s="54" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AG11" s="54" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AH11" s="54" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AI11" s="54" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AJ11" s="52" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AK11" s="52" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AL11" s="52" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AM11" s="52" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AN11" s="52" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AO11" s="52" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AP11" s="52" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AQ11" s="54" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AR11" s="55" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AS11" s="54" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AT11" s="54" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AU11" s="56"/>
       <c r="AV11" s="55" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AW11" s="54" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AX11" s="55" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AY11" s="54" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AZ11" s="55" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="BA11" s="54" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="BB11" s="53"/>
       <c r="BC11" s="52" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="BD11" s="52" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="BE11" s="52" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="BF11" s="52" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="BG11" s="53"/>
       <c r="BH11" s="52" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="BI11" s="52" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="BJ11" s="44"/>
       <c r="BK11" s="44"/>
@@ -6949,7 +6949,7 @@
         <v>44</v>
       </c>
       <c r="R12" s="61" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="S12" s="62">
         <v>6</v>
@@ -6971,95 +6971,95 @@
       <c r="AA12" s="52"/>
       <c r="AB12" s="71"/>
       <c r="AC12" s="41" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AD12" s="41" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AE12" s="53"/>
       <c r="AF12" s="54" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AG12" s="54" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AH12" s="54" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AI12" s="54" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AJ12" s="52" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AK12" s="52" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AL12" s="52" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AM12" s="52" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AN12" s="52" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AO12" s="52" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AP12" s="52" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AQ12" s="54" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AR12" s="55" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AS12" s="54" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AT12" s="54" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AU12" s="56"/>
       <c r="AV12" s="55" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AW12" s="54" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AX12" s="55" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AY12" s="54" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AZ12" s="55" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="BA12" s="54" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="BB12" s="53"/>
       <c r="BC12" s="52" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="BD12" s="52" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="BE12" s="52" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="BF12" s="52" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="BG12" s="53"/>
       <c r="BH12" s="52" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="BI12" s="52" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="BJ12" s="44"/>
       <c r="BK12" s="44"/>
@@ -7494,7 +7494,7 @@
         <v>44</v>
       </c>
       <c r="R13" s="61" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="S13" s="62">
         <v>6</v>
@@ -7516,95 +7516,95 @@
       <c r="AA13" s="52"/>
       <c r="AB13" s="71"/>
       <c r="AC13" s="41" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AD13" s="41" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AE13" s="53"/>
       <c r="AF13" s="54" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AG13" s="54" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AH13" s="54" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AI13" s="54" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AJ13" s="54" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AK13" s="55" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AL13" s="54" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AM13" s="54" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AN13" s="55" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AO13" s="54" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AP13" s="54" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AQ13" s="54" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AR13" s="55" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AS13" s="54" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AT13" s="54" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AU13" s="56"/>
       <c r="AV13" s="52" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AW13" s="52" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AX13" s="52" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AY13" s="52" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AZ13" s="52" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="BA13" s="52" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="BB13" s="53"/>
       <c r="BC13" s="52" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="BD13" s="52" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="BE13" s="52" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="BF13" s="52" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="BG13" s="53"/>
       <c r="BH13" s="52" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="BI13" s="52" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="BJ13" s="44"/>
       <c r="BK13" s="44"/>
@@ -8039,7 +8039,7 @@
         <v>44</v>
       </c>
       <c r="R14" s="61" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="S14" s="62">
         <v>6</v>
@@ -8061,95 +8061,95 @@
       <c r="AA14" s="52"/>
       <c r="AB14" s="71"/>
       <c r="AC14" s="41" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AD14" s="41" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AE14" s="53"/>
       <c r="AF14" s="54" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AG14" s="54" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AH14" s="54" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AI14" s="54" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AJ14" s="54" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AK14" s="55" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AL14" s="54" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AM14" s="54" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AN14" s="55" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AO14" s="54" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AP14" s="54" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AQ14" s="54" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AR14" s="55" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AS14" s="54" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AT14" s="54" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AU14" s="56"/>
       <c r="AV14" s="52" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AW14" s="52" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AX14" s="52" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AY14" s="52" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AZ14" s="52" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="BA14" s="52" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="BB14" s="53"/>
       <c r="BC14" s="52" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="BD14" s="52" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="BE14" s="52" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="BF14" s="52" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="BG14" s="53"/>
       <c r="BH14" s="52" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="BI14" s="52" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="BJ14" s="44"/>
       <c r="BK14" s="44"/>
@@ -8584,7 +8584,7 @@
         <v>44</v>
       </c>
       <c r="R15" s="61" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="S15" s="62">
         <v>25</v>
@@ -8606,95 +8606,95 @@
       <c r="AA15" s="52"/>
       <c r="AB15" s="71"/>
       <c r="AC15" s="41" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AD15" s="41" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AE15" s="53"/>
       <c r="AF15" s="54" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AG15" s="54" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AH15" s="54" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AI15" s="54" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AJ15" s="52" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AK15" s="52" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AL15" s="52" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AM15" s="52" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AN15" s="52" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AO15" s="52" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AP15" s="52" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AQ15" s="54" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AR15" s="55" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AS15" s="54" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AT15" s="54" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AU15" s="56"/>
       <c r="AV15" s="52" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AW15" s="52" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AX15" s="52" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AY15" s="52" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AZ15" s="52" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="BA15" s="52" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="BB15" s="53"/>
       <c r="BC15" s="52" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="BD15" s="52" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="BE15" s="52" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="BF15" s="52" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="BG15" s="53"/>
       <c r="BH15" s="52" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="BI15" s="52" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="BJ15" s="44"/>
       <c r="BK15" s="44"/>
@@ -9129,7 +9129,7 @@
         <v>44</v>
       </c>
       <c r="R16" s="61" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="S16" s="62">
         <v>25</v>
@@ -9151,95 +9151,95 @@
       <c r="AA16" s="52"/>
       <c r="AB16" s="71"/>
       <c r="AC16" s="41" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AD16" s="41" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AE16" s="53"/>
       <c r="AF16" s="54" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AG16" s="54" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AH16" s="54" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AI16" s="54" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AJ16" s="52" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AK16" s="52" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AL16" s="52" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AM16" s="52" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AN16" s="52" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AO16" s="52" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AP16" s="52" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AQ16" s="54" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AR16" s="55" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AS16" s="54" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AT16" s="54" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AU16" s="56"/>
       <c r="AV16" s="52" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AW16" s="52" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AX16" s="52" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AY16" s="52" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AZ16" s="52" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="BA16" s="52" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="BB16" s="53"/>
       <c r="BC16" s="52" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="BD16" s="52" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="BE16" s="52" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="BF16" s="52" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="BG16" s="53"/>
       <c r="BH16" s="52" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="BI16" s="52" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="BJ16" s="44"/>
       <c r="BK16" s="44"/>
@@ -9674,7 +9674,7 @@
         <v>44</v>
       </c>
       <c r="R17" s="61" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="S17" s="62">
         <v>25</v>
@@ -9696,95 +9696,95 @@
       <c r="AA17" s="52"/>
       <c r="AB17" s="71"/>
       <c r="AC17" s="41" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AD17" s="41" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AE17" s="53"/>
       <c r="AF17" s="54" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AG17" s="54" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AH17" s="54" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AI17" s="54" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AJ17" s="52" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AK17" s="52" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AL17" s="52" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AM17" s="52" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AN17" s="52" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AO17" s="52" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AP17" s="52" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AQ17" s="54" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AR17" s="55" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AS17" s="54" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AT17" s="54" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AU17" s="56"/>
       <c r="AV17" s="52" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AW17" s="52" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AX17" s="52" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AY17" s="52" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AZ17" s="52" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="BA17" s="52" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="BB17" s="53"/>
       <c r="BC17" s="52" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="BD17" s="52" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="BE17" s="52" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="BF17" s="52" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="BG17" s="53"/>
       <c r="BH17" s="52" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="BI17" s="52" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="BJ17" s="44"/>
       <c r="BK17" s="44"/>
@@ -10219,7 +10219,7 @@
         <v>44</v>
       </c>
       <c r="R18" s="61" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="S18" s="62">
         <v>15</v>
@@ -10241,95 +10241,95 @@
       <c r="AA18" s="52"/>
       <c r="AB18" s="71"/>
       <c r="AC18" s="41" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AD18" s="41" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AE18" s="53"/>
       <c r="AF18" s="54" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AG18" s="54" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AH18" s="54" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AI18" s="54" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AJ18" s="52" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AK18" s="52" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AL18" s="52" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AM18" s="52" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AN18" s="55" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AO18" s="54" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AP18" s="54" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AQ18" s="54" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AR18" s="55" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AS18" s="54" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AT18" s="54" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AU18" s="56"/>
       <c r="AV18" s="52" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AW18" s="52" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AX18" s="52" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AY18" s="52" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AZ18" s="52" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="BA18" s="52" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="BB18" s="53"/>
       <c r="BC18" s="52" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="BD18" s="52" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="BE18" s="52" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="BF18" s="52" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="BG18" s="53"/>
       <c r="BH18" s="52" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="BI18" s="52" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="BJ18" s="44"/>
       <c r="BK18" s="44"/>
@@ -10764,7 +10764,7 @@
         <v>44</v>
       </c>
       <c r="R19" s="61" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="S19" s="62">
         <v>25</v>
@@ -10788,95 +10788,95 @@
       <c r="AA19" s="52"/>
       <c r="AB19" s="59"/>
       <c r="AC19" s="44" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AD19" s="44" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AE19" s="53"/>
       <c r="AF19" s="54" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AG19" s="54" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AH19" s="54" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AI19" s="54" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AJ19" s="52" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AK19" s="52" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AL19" s="52" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AM19" s="52" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AN19" s="52" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AO19" s="52" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AP19" s="52" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AQ19" s="54" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AR19" s="55" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AS19" s="54" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AT19" s="54" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AU19" s="56"/>
       <c r="AV19" s="52" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AW19" s="52" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AX19" s="52" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AY19" s="52" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AZ19" s="55" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="BA19" s="54" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="BB19" s="53"/>
       <c r="BC19" s="52" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="BD19" s="52" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="BE19" s="52" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="BF19" s="52" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="BG19" s="53"/>
       <c r="BH19" s="52" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="BI19" s="52" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="BJ19" s="44"/>
       <c r="BK19" s="44"/>
@@ -11311,7 +11311,7 @@
         <v>44</v>
       </c>
       <c r="R20" s="61" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="S20" s="62">
         <v>25</v>
@@ -11333,95 +11333,95 @@
       <c r="AA20" s="52"/>
       <c r="AB20" s="59"/>
       <c r="AC20" s="44" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AD20" s="44" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AE20" s="53"/>
       <c r="AF20" s="54" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AG20" s="54" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AH20" s="54" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AI20" s="54" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AJ20" s="52" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AK20" s="52" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AL20" s="52" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AM20" s="52" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AN20" s="52" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AO20" s="52" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AP20" s="52" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AQ20" s="54" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AR20" s="55" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AS20" s="54" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AT20" s="54" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AU20" s="56"/>
       <c r="AV20" s="52" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AW20" s="52" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AX20" s="52" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AY20" s="52" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AZ20" s="55" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="BA20" s="54" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="BB20" s="53"/>
       <c r="BC20" s="52" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="BD20" s="52" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="BE20" s="52" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="BF20" s="52" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="BG20" s="53"/>
       <c r="BH20" s="52" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="BI20" s="52" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="BJ20" s="44"/>
       <c r="BK20" s="44"/>
@@ -11856,7 +11856,7 @@
         <v>44</v>
       </c>
       <c r="R21" s="61" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="S21" s="62">
         <v>7</v>
@@ -11880,95 +11880,95 @@
       <c r="AA21" s="52"/>
       <c r="AB21" s="59"/>
       <c r="AC21" s="41" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AD21" s="41" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AE21" s="53"/>
       <c r="AF21" s="54" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AG21" s="54" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AH21" s="54" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AI21" s="54" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AJ21" s="52" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AK21" s="52" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AL21" s="52" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AM21" s="52" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AN21" s="52" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AO21" s="52" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AP21" s="52" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AQ21" s="54" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AR21" s="55" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AS21" s="54" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AT21" s="54" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AU21" s="56"/>
       <c r="AV21" s="52" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AW21" s="52" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AX21" s="52" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AY21" s="52" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AZ21" s="55" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="BA21" s="54" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="BB21" s="53"/>
       <c r="BC21" s="52" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="BD21" s="52" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="BE21" s="52" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="BF21" s="52" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="BG21" s="53"/>
       <c r="BH21" s="52" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="BI21" s="52" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="BJ21" s="44"/>
       <c r="BK21" s="44"/>
@@ -12403,7 +12403,7 @@
         <v>44</v>
       </c>
       <c r="R22" s="61" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="S22" s="62">
         <v>7</v>
@@ -12425,95 +12425,95 @@
       <c r="AA22" s="52"/>
       <c r="AB22" s="59"/>
       <c r="AC22" s="41" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AD22" s="41" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AE22" s="53"/>
       <c r="AF22" s="54" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AG22" s="54" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AH22" s="54" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AI22" s="54" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AJ22" s="52" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AK22" s="52" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AL22" s="52" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AM22" s="52" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AN22" s="52" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AO22" s="52" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AP22" s="52" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AQ22" s="54" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AR22" s="55" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AS22" s="54" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AT22" s="54" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AU22" s="56"/>
       <c r="AV22" s="52" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AW22" s="52" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AX22" s="52" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AY22" s="52" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AZ22" s="55" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="BA22" s="54" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="BB22" s="53"/>
       <c r="BC22" s="52" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="BD22" s="52" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="BE22" s="52" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="BF22" s="52" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="BG22" s="53"/>
       <c r="BH22" s="52" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="BI22" s="52" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="BJ22" s="44"/>
       <c r="BK22" s="44"/>
@@ -12948,7 +12948,7 @@
         <v>44</v>
       </c>
       <c r="R23" s="61" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="S23" s="62">
         <v>7</v>
@@ -12970,95 +12970,95 @@
       <c r="AA23" s="52"/>
       <c r="AB23" s="59"/>
       <c r="AC23" s="41" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AD23" s="41" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AE23" s="53"/>
       <c r="AF23" s="54" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AG23" s="54" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AH23" s="54" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AI23" s="54" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AJ23" s="52" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AK23" s="52" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AL23" s="52" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AM23" s="52" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AN23" s="52" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AO23" s="52" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AP23" s="52" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AQ23" s="54" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AR23" s="55" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AS23" s="54" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AT23" s="54" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AU23" s="56"/>
       <c r="AV23" s="52" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AW23" s="52" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AX23" s="52" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AY23" s="52" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AZ23" s="55" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="BA23" s="54" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="BB23" s="53"/>
       <c r="BC23" s="52" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="BD23" s="52" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="BE23" s="52" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="BF23" s="52" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="BG23" s="53"/>
       <c r="BH23" s="52" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="BI23" s="52" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="BJ23" s="44"/>
       <c r="BK23" s="44"/>
@@ -13493,7 +13493,7 @@
         <v>44</v>
       </c>
       <c r="R24" s="61" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="S24" s="62">
         <v>8</v>
@@ -13515,95 +13515,95 @@
       <c r="AA24" s="52"/>
       <c r="AB24" s="59"/>
       <c r="AC24" s="41" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AD24" s="41" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AE24" s="53"/>
       <c r="AF24" s="54" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AG24" s="54" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AH24" s="54" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AI24" s="54" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AJ24" s="52" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AK24" s="52" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AL24" s="52" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AM24" s="52" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AN24" s="52" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AO24" s="52" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AP24" s="52" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AQ24" s="54" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AR24" s="55" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AS24" s="54" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AT24" s="54" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AU24" s="56"/>
       <c r="AV24" s="52" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AW24" s="52" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AX24" s="52" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AY24" s="52" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AZ24" s="55" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="BA24" s="54" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="BB24" s="53"/>
       <c r="BC24" s="52" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="BD24" s="52" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="BE24" s="52" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="BF24" s="52" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="BG24" s="53"/>
       <c r="BH24" s="52" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="BI24" s="52" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="BJ24" s="44"/>
       <c r="BK24" s="44"/>
@@ -14038,7 +14038,7 @@
         <v>44</v>
       </c>
       <c r="R25" s="61" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="S25" s="62">
         <v>8</v>
@@ -14060,95 +14060,95 @@
       <c r="AA25" s="52"/>
       <c r="AB25" s="59"/>
       <c r="AC25" s="41" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AD25" s="41" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AE25" s="53"/>
       <c r="AF25" s="54" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AG25" s="54" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AH25" s="54" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AI25" s="54" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AJ25" s="52" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AK25" s="52" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AL25" s="52" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AM25" s="52" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AN25" s="52" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AO25" s="52" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AP25" s="52" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AQ25" s="54" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AR25" s="55" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AS25" s="54" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AT25" s="54" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AU25" s="56"/>
       <c r="AV25" s="52" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AW25" s="52" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AX25" s="52" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AY25" s="52" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AZ25" s="55" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="BA25" s="54" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="BB25" s="53"/>
       <c r="BC25" s="52" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="BD25" s="52" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="BE25" s="52" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="BF25" s="52" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="BG25" s="53"/>
       <c r="BH25" s="52" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="BI25" s="52" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="BJ25" s="44"/>
       <c r="BK25" s="44"/>
@@ -14583,7 +14583,7 @@
         <v>44</v>
       </c>
       <c r="R26" s="61" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="S26" s="62">
         <v>8</v>
@@ -14605,95 +14605,95 @@
       <c r="AA26" s="52"/>
       <c r="AB26" s="59"/>
       <c r="AC26" s="41" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AD26" s="41" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AE26" s="53"/>
       <c r="AF26" s="54" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AG26" s="54" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AH26" s="54" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AI26" s="54" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AJ26" s="52" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AK26" s="52" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AL26" s="52" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AM26" s="52" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AN26" s="52" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AO26" s="52" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AP26" s="52" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AQ26" s="54" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AR26" s="55" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AS26" s="54" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AT26" s="54" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AU26" s="56"/>
       <c r="AV26" s="52" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AW26" s="52" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AX26" s="52" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AY26" s="52" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AZ26" s="55" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="BA26" s="54" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="BB26" s="53"/>
       <c r="BC26" s="52" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="BD26" s="52" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="BE26" s="52" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="BF26" s="52" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="BG26" s="53"/>
       <c r="BH26" s="52" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="BI26" s="52" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="BJ26" s="44"/>
       <c r="BK26" s="44"/>
@@ -15128,7 +15128,7 @@
         <v>44</v>
       </c>
       <c r="R27" s="61" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="S27" s="62">
         <v>8</v>
@@ -15150,95 +15150,95 @@
       <c r="AA27" s="52"/>
       <c r="AB27" s="59"/>
       <c r="AC27" s="41" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AD27" s="41" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AE27" s="53"/>
       <c r="AF27" s="54" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AG27" s="54" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AH27" s="54" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AI27" s="54" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AJ27" s="52" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AK27" s="52" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AL27" s="52" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AM27" s="52" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AN27" s="52" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AO27" s="52" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AP27" s="52" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AQ27" s="54" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AR27" s="55" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AS27" s="54" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AT27" s="54" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AU27" s="56"/>
       <c r="AV27" s="52" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AW27" s="52" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AX27" s="52" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AY27" s="52" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AZ27" s="55" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="BA27" s="54" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="BB27" s="53"/>
       <c r="BC27" s="52" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="BD27" s="52" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="BE27" s="52" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="BF27" s="52" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="BG27" s="53"/>
       <c r="BH27" s="52" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="BI27" s="52" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="BJ27" s="44"/>
       <c r="BK27" s="44"/>
@@ -15673,7 +15673,7 @@
         <v>44</v>
       </c>
       <c r="R28" s="61" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="S28" s="62">
         <v>7</v>
@@ -15695,95 +15695,95 @@
       <c r="AA28" s="52"/>
       <c r="AB28" s="59"/>
       <c r="AC28" s="41" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AD28" s="41" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AE28" s="53"/>
       <c r="AF28" s="54" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AG28" s="54" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AH28" s="54" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AI28" s="54" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AJ28" s="52" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AK28" s="52" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AL28" s="52" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AM28" s="52" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AN28" s="52" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AO28" s="52" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AP28" s="52" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AQ28" s="54" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AR28" s="55" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AS28" s="54" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AT28" s="54" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AU28" s="56"/>
       <c r="AV28" s="52" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AW28" s="52" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AX28" s="52" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AY28" s="52" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AZ28" s="55" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="BA28" s="54" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="BB28" s="53"/>
       <c r="BC28" s="52" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="BD28" s="52" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="BE28" s="52" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="BF28" s="52" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="BG28" s="53"/>
       <c r="BH28" s="52" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="BI28" s="52" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="BJ28" s="44"/>
       <c r="BK28" s="44"/>
@@ -16225,95 +16225,95 @@
       <c r="AA29" s="70"/>
       <c r="AB29" s="71"/>
       <c r="AC29" s="44" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AD29" s="44" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AE29" s="53"/>
       <c r="AF29" s="72" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AG29" s="72" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AH29" s="72" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AI29" s="72" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AJ29" s="72" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AK29" s="48" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AL29" s="72" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AM29" s="72" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AN29" s="48" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AO29" s="72" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AP29" s="72" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AQ29" s="72" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AR29" s="48" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AS29" s="72" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AT29" s="72" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AU29" s="56"/>
       <c r="AV29" s="48" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AW29" s="72" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AX29" s="48" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AY29" s="72" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AZ29" s="48" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="BA29" s="72" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="BB29" s="53"/>
       <c r="BC29" s="44" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="BD29" s="44" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="BE29" s="44" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="BF29" s="44" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="BG29" s="53"/>
       <c r="BH29" s="44" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="BI29" s="44" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="BJ29" s="66"/>
       <c r="BK29" s="66"/>

--- a/Registros.xlsx
+++ b/Registros.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bmont\Documents\Funny\Python\Alegra\alegraApp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bmont\Documents\Some Code\Python\Alegra\alegraApp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59142F14-8A53-4DAA-A2C9-E361DC21291A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66F72D61-D31A-41BE-ADA3-A0D5D099703D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -852,7 +852,7 @@
   </sheetPr>
   <dimension ref="A1:RB29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="S1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="Z2" sqref="Z2"/>
     </sheetView>
   </sheetViews>
@@ -4207,7 +4207,9 @@
       <c r="C7" s="38"/>
       <c r="D7" s="38"/>
       <c r="E7" s="38"/>
-      <c r="F7" s="39"/>
+      <c r="F7" s="39">
+        <v>0.05</v>
+      </c>
       <c r="G7" s="40" t="s">
         <v>39</v>
       </c>

--- a/Registros.xlsx
+++ b/Registros.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bmont\Documents\Some Code\Python\Alegra\alegraApp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66F72D61-D31A-41BE-ADA3-A0D5D099703D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CD1E9DA-1002-48B4-BDD9-9A644114B065}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/Registros.xlsx
+++ b/Registros.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="ENVIABLES" sheetId="1" state="visible" r:id="rId1"/>
@@ -146,7 +146,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="4" fontId="1" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="3" fontId="1" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -208,7 +208,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
@@ -597,20 +596,21 @@
   </sheetPr>
   <dimension ref="A1:Z14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="Z10" sqref="Z10"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="S14" sqref="S14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col width="10.90625" customWidth="1" style="29" min="2" max="2"/>
-    <col width="17.26953125" customWidth="1" style="29" min="4" max="4"/>
-    <col width="14.453125" customWidth="1" style="29" min="5" max="5"/>
-    <col width="20.1796875" customWidth="1" style="29" min="7" max="7"/>
-    <col width="21.7265625" customWidth="1" style="29" min="8" max="8"/>
-    <col width="10.90625" customWidth="1" style="29" min="16" max="16"/>
-    <col width="15.26953125" customWidth="1" style="29" min="21" max="21"/>
-    <col width="10.90625" customWidth="1" style="29" min="23" max="23"/>
+    <col width="10.85546875" customWidth="1" min="2" max="2"/>
+    <col width="17.28515625" customWidth="1" min="4" max="4"/>
+    <col width="14.42578125" customWidth="1" min="5" max="5"/>
+    <col width="20.140625" customWidth="1" min="7" max="7"/>
+    <col width="21.7109375" customWidth="1" min="8" max="8"/>
+    <col width="10.85546875" customWidth="1" min="16" max="16"/>
+    <col width="16.85546875" customWidth="1" min="18" max="18"/>
+    <col width="15.28515625" customWidth="1" min="21" max="21"/>
+    <col width="10.85546875" customWidth="1" min="23" max="23"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -781,7 +781,7 @@
       <c r="C3" s="12" t="n">
         <v>44366</v>
       </c>
-      <c r="D3" s="32" t="inlineStr">
+      <c r="D3" s="31" t="inlineStr">
         <is>
           <t>Factura</t>
         </is>
@@ -942,7 +942,7 @@
         <v>0</v>
       </c>
       <c r="G5" s="11" t="n"/>
-      <c r="H5" s="30" t="n"/>
+      <c r="H5" s="29" t="n"/>
       <c r="I5" s="15" t="n"/>
       <c r="J5" s="15" t="n"/>
       <c r="K5" s="9" t="n"/>
@@ -1036,7 +1036,7 @@
           <t>Samuel rendon</t>
         </is>
       </c>
-      <c r="H7" s="31" t="n">
+      <c r="H7" s="30" t="n">
         <v>3560832</v>
       </c>
       <c r="I7" s="15" t="inlineStr">
@@ -1113,7 +1113,7 @@
       <c r="E8" s="15" t="n"/>
       <c r="F8" s="11" t="n"/>
       <c r="G8" s="11" t="n"/>
-      <c r="H8" s="30" t="n"/>
+      <c r="H8" s="29" t="n"/>
       <c r="I8" s="14" t="n"/>
       <c r="J8" s="14" t="n"/>
       <c r="K8" s="9" t="n"/>
@@ -1207,7 +1207,7 @@
           <t>Samuel Rendon SAS</t>
         </is>
       </c>
-      <c r="H10" s="31" t="n">
+      <c r="H10" s="30" t="n">
         <v>901352563</v>
       </c>
       <c r="I10" s="15" t="inlineStr">

--- a/Registros.xlsx
+++ b/Registros.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bmont\Documents\Code\Projs\alegraApp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F5D848F-0CA1-4666-97EB-DEBD41A904AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F212BCCB-4AFB-48BD-BFED-E960991219A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ENVIABLES" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="45">
   <si>
     <t>FECHA</t>
   </si>
@@ -165,6 +165,9 @@
   </si>
   <si>
     <t>pendiente</t>
+  </si>
+  <si>
+    <t>Cotizacion</t>
   </si>
 </sst>
 </file>
@@ -689,24 +692,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="P3" sqref="P3"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="10.81640625" customWidth="1"/>
-    <col min="4" max="4" width="17.26953125" customWidth="1"/>
-    <col min="5" max="5" width="14.453125" customWidth="1"/>
-    <col min="7" max="7" width="20.1796875" customWidth="1"/>
-    <col min="8" max="8" width="21.7265625" customWidth="1"/>
-    <col min="16" max="16" width="10.81640625" customWidth="1"/>
-    <col min="18" max="18" width="16.81640625" customWidth="1"/>
-    <col min="21" max="21" width="15.26953125" customWidth="1"/>
-    <col min="23" max="23" width="10.81640625" customWidth="1"/>
+    <col min="2" max="2" width="10.85546875" customWidth="1"/>
+    <col min="4" max="4" width="17.28515625" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" customWidth="1"/>
+    <col min="7" max="7" width="20.140625" customWidth="1"/>
+    <col min="8" max="8" width="21.7109375" customWidth="1"/>
+    <col min="16" max="16" width="10.85546875" customWidth="1"/>
+    <col min="18" max="18" width="16.85546875" customWidth="1"/>
+    <col min="21" max="21" width="15.28515625" customWidth="1"/>
+    <col min="23" max="23" width="10.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A1" s="25" t="s">
         <v>0</v>
       </c>
@@ -786,7 +789,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A2" s="27"/>
       <c r="B2" s="27"/>
       <c r="C2" s="27"/>
@@ -814,7 +817,7 @@
       <c r="Y2" s="2"/>
       <c r="Z2" s="1"/>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A3" s="12">
         <v>44366</v>
       </c>
@@ -893,7 +896,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A4" s="12"/>
       <c r="B4" s="12"/>
       <c r="C4" s="12"/>
@@ -945,7 +948,7 @@
         <v>360000</v>
       </c>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A5" s="12"/>
       <c r="B5" s="12"/>
       <c r="C5" s="12"/>
@@ -995,7 +998,7 @@
         <v>72000</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A6" s="27"/>
       <c r="B6" s="27"/>
       <c r="C6" s="27"/>
@@ -1023,7 +1026,7 @@
       <c r="Y6" s="2"/>
       <c r="Z6" s="1"/>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A7" s="12">
         <v>44365</v>
       </c>
@@ -1098,7 +1101,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A8" s="14"/>
       <c r="B8" s="14"/>
       <c r="C8" s="14"/>
@@ -1144,7 +1147,7 @@
         <v>360000</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A9" s="27"/>
       <c r="B9" s="27"/>
       <c r="C9" s="27"/>
@@ -1172,7 +1175,7 @@
       <c r="Y9" s="2"/>
       <c r="Z9" s="1"/>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A10" s="12">
         <v>44365</v>
       </c>
@@ -1181,7 +1184,7 @@
         <v>44365</v>
       </c>
       <c r="D10" s="15" t="s">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="E10" s="15" t="s">
         <v>27</v>
@@ -1249,10 +1252,10 @@
         <v>43</v>
       </c>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
       <c r="X12" s="24"/>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
       <c r="H14" s="24"/>
     </row>
   </sheetData>

--- a/Registros.xlsx
+++ b/Registros.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="ENVIABLES" sheetId="1" state="visible" r:id="rId1"/>
@@ -597,20 +597,20 @@
   <dimension ref="A1:Z14"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="H1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="Q4" sqref="Q4"/>
+      <selection activeCell="Z14" sqref="Z14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col width="10.81640625" customWidth="1" min="2" max="2"/>
-    <col width="17.26953125" customWidth="1" min="4" max="4"/>
-    <col width="14.453125" customWidth="1" min="5" max="5"/>
-    <col width="20.1796875" customWidth="1" min="7" max="7"/>
-    <col width="21.7265625" customWidth="1" min="8" max="8"/>
-    <col width="10.81640625" customWidth="1" min="16" max="16"/>
-    <col width="16.81640625" customWidth="1" min="18" max="18"/>
-    <col width="15.26953125" customWidth="1" min="21" max="21"/>
-    <col width="10.81640625" customWidth="1" min="23" max="23"/>
+    <col width="10.85546875" customWidth="1" min="2" max="2"/>
+    <col width="17.28515625" customWidth="1" min="4" max="4"/>
+    <col width="14.42578125" customWidth="1" min="5" max="5"/>
+    <col width="20.140625" customWidth="1" min="7" max="7"/>
+    <col width="21.7109375" customWidth="1" min="8" max="8"/>
+    <col width="10.85546875" customWidth="1" min="16" max="16"/>
+    <col width="16.85546875" customWidth="1" min="18" max="18"/>
+    <col width="15.28515625" customWidth="1" min="21" max="21"/>
+    <col width="10.85546875" customWidth="1" min="23" max="23"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -636,7 +636,7 @@
       </c>
       <c r="E1" s="25" t="inlineStr">
         <is>
-          <t>DCTO FNCIERO</t>
+          <t>VENDEDOR</t>
         </is>
       </c>
       <c r="F1" s="25" t="inlineStr">

--- a/Registros.xlsx
+++ b/Registros.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="5190" yWindow="4245" windowWidth="21600" windowHeight="11235" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="ENVIABLES" sheetId="1" state="visible" r:id="rId1"/>
@@ -19,7 +19,7 @@
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
     <numFmt numFmtId="165" formatCode="d/m/yy"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="11">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -82,6 +82,13 @@
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
+      <u val="single"/>
     </font>
   </fonts>
   <fills count="9">
@@ -146,7 +153,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="4" fontId="1" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="3" fontId="1" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -215,6 +222,9 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -596,8 +606,8 @@
   </sheetPr>
   <dimension ref="A1:Z14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="Z14" sqref="Z14"/>
+    <sheetView tabSelected="1" topLeftCell="P1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="V10" sqref="V10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -676,7 +686,7 @@
       </c>
       <c r="M1" s="22" t="inlineStr">
         <is>
-          <t>PAC TOT</t>
+          <t>PAQ TOT</t>
         </is>
       </c>
       <c r="N1" s="22" t="inlineStr">
@@ -709,9 +719,9 @@
           <t>CANTIDAD</t>
         </is>
       </c>
-      <c r="T1" s="25" t="inlineStr">
-        <is>
-          <t>PRECIOS IVA INC</t>
+      <c r="T1" s="22" t="inlineStr">
+        <is>
+          <t>PRECIO IVA INC</t>
         </is>
       </c>
       <c r="U1" s="25" t="inlineStr">
@@ -719,9 +729,9 @@
           <t>TOTAL</t>
         </is>
       </c>
-      <c r="V1" s="25" t="inlineStr">
-        <is>
-          <t>PESO (KG)</t>
+      <c r="V1" s="22" t="inlineStr">
+        <is>
+          <t>PESO</t>
         </is>
       </c>
       <c r="W1" s="25" t="inlineStr">
@@ -950,7 +960,7 @@
       <c r="M5" s="9" t="n"/>
       <c r="N5" s="9" t="n"/>
       <c r="O5" s="15" t="n"/>
-      <c r="P5" s="15" t="n"/>
+      <c r="P5" s="32" t="n"/>
       <c r="Q5" s="26" t="n">
         <v>3</v>
       </c>
@@ -1191,7 +1201,7 @@
       </c>
       <c r="D10" s="15" t="inlineStr">
         <is>
-          <t>Cotizacion</t>
+          <t>cotizacion</t>
         </is>
       </c>
       <c r="E10" s="15" t="inlineStr">

--- a/Registros.xlsx
+++ b/Registros.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="5190" yWindow="4245" windowWidth="21600" windowHeight="11235" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="4320" yWindow="3720" windowWidth="21600" windowHeight="11235" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="ENVIABLES" sheetId="1" state="visible" r:id="rId1"/>
@@ -607,7 +607,7 @@
   <dimension ref="A1:Z14"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="P1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="V10" sqref="V10"/>
+      <selection activeCell="Z10" sqref="Z10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -878,7 +878,7 @@
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>Cargado</t>
+          <t>Pendiente</t>
         </is>
       </c>
     </row>
@@ -1282,7 +1282,7 @@
       </c>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>Cargado</t>
+          <t>Pendiente</t>
         </is>
       </c>
     </row>
